--- a/payroll.xlsx
+++ b/payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -52,181 +52,208 @@
     <t>TAX/MWE</t>
   </si>
   <si>
+    <t>2092</t>
+  </si>
+  <si>
+    <t>RELATORRES,ANTONIO</t>
+  </si>
+  <si>
+    <t>OPERATOR</t>
+  </si>
+  <si>
+    <t>Rizal-R&amp;F</t>
+  </si>
+  <si>
+    <t>Taxable</t>
+  </si>
+  <si>
+    <t>2099</t>
+  </si>
+  <si>
+    <t>Gonzales,Ray Leonard</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>BRIOSO,MARCKEL</t>
+  </si>
+  <si>
+    <t>JR. MECHANIC</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>GONZALES,WINSELLE JOE</t>
+  </si>
+  <si>
+    <t>Mechanic</t>
+  </si>
+  <si>
+    <t>2097</t>
+  </si>
+  <si>
+    <t>CORTEZ,JUANITO, JR</t>
+  </si>
+  <si>
+    <t>TireMan</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>CALATCAT,ROGELIO, JR.</t>
+  </si>
+  <si>
+    <t>DT Driver</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>GONZALES,MARK</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>FUENTES,IAN JAMES</t>
+  </si>
+  <si>
+    <t>Warehouse man</t>
+  </si>
+  <si>
+    <t>2113</t>
+  </si>
+  <si>
+    <t>PENDOT,JOEFEL</t>
+  </si>
+  <si>
+    <t>Equipment Monitoring</t>
+  </si>
+  <si>
+    <t>2120</t>
+  </si>
+  <si>
+    <t>MENDADOR,JEROME</t>
+  </si>
+  <si>
+    <t>EQUIPT. MONITORING</t>
+  </si>
+  <si>
+    <t>2123</t>
+  </si>
+  <si>
+    <t>CAMANIA,JEREMIAH</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>2125</t>
+  </si>
+  <si>
+    <t>VISTAL,CHITO</t>
+  </si>
+  <si>
+    <t>2129</t>
+  </si>
+  <si>
+    <t>SEVERO,JONEL</t>
+  </si>
+  <si>
+    <t>Helper Mechanic</t>
+  </si>
+  <si>
+    <t>2130</t>
+  </si>
+  <si>
+    <t>BRIOSO,MARC LLYOD</t>
+  </si>
+  <si>
+    <t>2132</t>
+  </si>
+  <si>
+    <t>MARTINEZ,RENAN</t>
+  </si>
+  <si>
+    <t>Tire Man</t>
+  </si>
+  <si>
+    <t>2138</t>
+  </si>
+  <si>
+    <t>BOISER,JEFFREY</t>
+  </si>
+  <si>
+    <t>2149</t>
+  </si>
+  <si>
+    <t>MOLINA,ABRAHAM</t>
+  </si>
+  <si>
+    <t>2153</t>
+  </si>
+  <si>
+    <t>Pansoy,Edmon</t>
+  </si>
+  <si>
+    <t>2154</t>
+  </si>
+  <si>
+    <t>APILADO,VIC JR</t>
+  </si>
+  <si>
+    <t>2158</t>
+  </si>
+  <si>
+    <t>TOGUENIO,HENRY</t>
+  </si>
+  <si>
+    <t>2161</t>
+  </si>
+  <si>
+    <t>Barrientos,Abejoy</t>
+  </si>
+  <si>
     <t>4001</t>
   </si>
   <si>
     <t>GABAY,DENNIS</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Pampanga</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>GONZALES,WINSELLE JOE</t>
-  </si>
-  <si>
-    <t>Mechanic</t>
-  </si>
-  <si>
     <t>2076</t>
   </si>
   <si>
     <t>PATAMBAG,JUNEL</t>
   </si>
   <si>
-    <t>DT Driver</t>
-  </si>
-  <si>
-    <t>Rizal-R&amp;F</t>
-  </si>
-  <si>
-    <t>2082</t>
-  </si>
-  <si>
-    <t>SIRAY,JERIMIAS</t>
-  </si>
-  <si>
     <t>2102</t>
   </si>
   <si>
     <t>CONOMON,DONALD</t>
   </si>
   <si>
-    <t>2092</t>
-  </si>
-  <si>
-    <t>RELATORRES,ANTONIO</t>
-  </si>
-  <si>
-    <t>OPERATOR</t>
-  </si>
-  <si>
-    <t>2099</t>
-  </si>
-  <si>
-    <t>Gonzales,Ray Leonard</t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>BRIOSO,MARCKEL</t>
-  </si>
-  <si>
-    <t>JR. MECHANIC</t>
-  </si>
-  <si>
-    <t>2097</t>
-  </si>
-  <si>
-    <t>CORTEZ,JUANITO, JR</t>
-  </si>
-  <si>
-    <t>TireMan</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>CALATCAT,ROGELIO, JR.</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>GONZALES,MARK</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>FUENTES,IAN JAMES</t>
-  </si>
-  <si>
-    <t>Warehouse man</t>
-  </si>
-  <si>
-    <t>2113</t>
-  </si>
-  <si>
-    <t>PENDOT,JOEFEL</t>
-  </si>
-  <si>
-    <t>Equipment Monitoring</t>
-  </si>
-  <si>
-    <t>2120</t>
-  </si>
-  <si>
-    <t>MENDADOR,JEROME</t>
-  </si>
-  <si>
-    <t>EQUIPT. MONITORING</t>
-  </si>
-  <si>
-    <t>2123</t>
-  </si>
-  <si>
-    <t>CAMANIA,JEREMIAH</t>
-  </si>
-  <si>
-    <t>2125</t>
-  </si>
-  <si>
-    <t>VISTAL,CHITO</t>
-  </si>
-  <si>
-    <t>2128</t>
-  </si>
-  <si>
-    <t>CAPAROSO,ALLAN</t>
-  </si>
-  <si>
-    <t>2129</t>
-  </si>
-  <si>
-    <t>SEVERO,JONEL</t>
-  </si>
-  <si>
-    <t>Helper Mechanic</t>
-  </si>
-  <si>
-    <t>2130</t>
-  </si>
-  <si>
-    <t>BRIOSO,MARC LLYOD</t>
-  </si>
-  <si>
     <t>2136</t>
   </si>
   <si>
     <t>CONOMON,DOMINADOR</t>
   </si>
   <si>
-    <t>2138</t>
-  </si>
-  <si>
-    <t>BOISER,JEFFREY</t>
-  </si>
-  <si>
     <t>2140</t>
   </si>
   <si>
     <t>ALBOR,FELMAR</t>
   </si>
   <si>
-    <t>2141</t>
-  </si>
-  <si>
-    <t>CABILIN,JOURDY</t>
+    <t>2155</t>
+  </si>
+  <si>
+    <t>CARAJASAN,REYNALD</t>
   </si>
   <si>
     <t>2151</t>
@@ -238,108 +265,6 @@
     <t>MECHANIC</t>
   </si>
   <si>
-    <t>2147</t>
-  </si>
-  <si>
-    <t>Mendoza,Ryan</t>
-  </si>
-  <si>
-    <t>2149</t>
-  </si>
-  <si>
-    <t>MOLINA,ABRAHAM</t>
-  </si>
-  <si>
-    <t>2153</t>
-  </si>
-  <si>
-    <t>Pansoy,Edmon</t>
-  </si>
-  <si>
-    <t>2154</t>
-  </si>
-  <si>
-    <t>APILADO,VIC JR</t>
-  </si>
-  <si>
-    <t>2155</t>
-  </si>
-  <si>
-    <t>CARAJASAN,REYNALD</t>
-  </si>
-  <si>
-    <t>2157</t>
-  </si>
-  <si>
-    <t>CAPAROSO,ROGER SR</t>
-  </si>
-  <si>
-    <t>2156</t>
-  </si>
-  <si>
-    <t>OLA,ALLAN</t>
-  </si>
-  <si>
-    <t>2158</t>
-  </si>
-  <si>
-    <t>TOGUENIO,HENRY</t>
-  </si>
-  <si>
-    <t>2160</t>
-  </si>
-  <si>
-    <t>Tan,Raymond William</t>
-  </si>
-  <si>
-    <t>2161</t>
-  </si>
-  <si>
-    <t>Barrientos,Abejoy</t>
-  </si>
-  <si>
-    <t>2163</t>
-  </si>
-  <si>
-    <t>DICEN,JEREMIAH</t>
-  </si>
-  <si>
-    <t>DRIVER</t>
-  </si>
-  <si>
-    <t>2162</t>
-  </si>
-  <si>
-    <t>CAMBIO,CHARITO</t>
-  </si>
-  <si>
-    <t>2164</t>
-  </si>
-  <si>
-    <t>PATROCENIO,ROGER</t>
-  </si>
-  <si>
-    <t>2137</t>
-  </si>
-  <si>
-    <t>CAPAROSO,ARNEL</t>
-  </si>
-  <si>
-    <t>2132</t>
-  </si>
-  <si>
-    <t>MARTINEZ,RENAN</t>
-  </si>
-  <si>
-    <t>Tire Man</t>
-  </si>
-  <si>
-    <t>2165</t>
-  </si>
-  <si>
-    <t>NAVARRA,JOHNRY</t>
-  </si>
-  <si>
     <t>2003</t>
   </si>
   <si>
@@ -395,6 +320,9 @@
   </si>
   <si>
     <t>Liason Officer</t>
+  </si>
+  <si>
+    <t>MWE</t>
   </si>
   <si>
     <t>2001</t>
@@ -771,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -823,10 +751,10 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E2">
-        <v>20766.25</v>
+        <v>22897.01</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -835,86 +763,86 @@
         <v>3883.34</v>
       </c>
       <c r="H2">
-        <v>5962.91</v>
+        <v>5983.34</v>
       </c>
       <c r="I2">
-        <v>10040</v>
+        <v>11847.33</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>880</v>
+      <c r="K2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E3">
-        <v>16380</v>
+        <v>28334.25</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>3883.34</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17219.41</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>728.5</v>
+      <c r="K3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="E4">
-        <v>22055.44</v>
+        <v>18087.51</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>3883.34</v>
       </c>
       <c r="H4">
-        <v>6470.84</v>
+        <v>4506.16</v>
       </c>
       <c r="I4">
-        <v>10853.51</v>
+        <v>8818</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>847.75</v>
+      <c r="K4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -925,407 +853,407 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="E5">
-        <v>20095.58</v>
+        <v>13149</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>3883.34</v>
+        <v>3094.17</v>
       </c>
       <c r="H5">
-        <v>5900.81</v>
+        <v>356.83</v>
       </c>
       <c r="I5">
-        <v>9463.68</v>
+        <v>8969.5</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>847.75</v>
+      <c r="K5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="E6">
-        <v>23226.31</v>
+        <v>19758.5</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>3883.34</v>
       </c>
       <c r="H6">
-        <v>6470.84</v>
+        <v>5523</v>
       </c>
       <c r="I6">
-        <v>12024.39</v>
+        <v>9809.66</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>847.75</v>
+      <c r="K6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>700</v>
+        <v>475</v>
       </c>
       <c r="E7">
-        <v>23450.13</v>
+        <v>19982.77</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>3883.34</v>
       </c>
       <c r="H7">
-        <v>5983.34</v>
+        <v>6104.16</v>
       </c>
       <c r="I7">
-        <v>12400.45</v>
+        <v>9332.780000000001</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>1183</v>
+      <c r="K7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
       <c r="D8">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="E8">
-        <v>29080.5</v>
+        <v>21017.82</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>3883.34</v>
       </c>
       <c r="H8">
-        <v>6200</v>
+        <v>6470.84</v>
       </c>
       <c r="I8">
-        <v>17965.66</v>
+        <v>9815.889999999999</v>
       </c>
       <c r="J8">
-        <v>474.57</v>
-      </c>
-      <c r="K8">
-        <v>1031.5</v>
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>500</v>
+        <v>378.5</v>
       </c>
       <c r="E9">
-        <v>17575.01</v>
+        <v>2744.13</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>3883.34</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>3993.67</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>8818</v>
+        <v>2744.13</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>880</v>
+      <c r="K9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>400</v>
+        <v>378.5</v>
       </c>
       <c r="E10">
-        <v>23354</v>
+        <v>17858.58</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G10">
         <v>3883.34</v>
       </c>
       <c r="H10">
-        <v>6633.34</v>
+        <v>4277.24</v>
       </c>
       <c r="I10">
-        <v>12108.82</v>
+        <v>8998</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>728.5</v>
+      <c r="K10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D11">
-        <v>475</v>
+        <v>378.5</v>
       </c>
       <c r="E11">
-        <v>18668.66</v>
+        <v>14784.21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>3883.34</v>
+        <v>2282.85</v>
       </c>
       <c r="H11">
-        <v>4621.25</v>
+        <v>2803.36</v>
       </c>
       <c r="I11">
-        <v>9501.57</v>
+        <v>8998</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>662.5</v>
+      <c r="K11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D12">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="E12">
-        <v>18553.68</v>
+        <v>14599</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G12">
-        <v>3883.34</v>
+        <v>3662.67</v>
       </c>
       <c r="H12">
-        <v>4972.34</v>
+        <v>1238.33</v>
       </c>
       <c r="I12">
-        <v>8850.25</v>
+        <v>8969.5</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>847.75</v>
+      <c r="K12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>378.5</v>
+        <v>475</v>
       </c>
       <c r="E13">
-        <v>15099.79</v>
+        <v>19521.53</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>3883.34</v>
       </c>
       <c r="H13">
-        <v>1518.45</v>
+        <v>5544.19</v>
       </c>
       <c r="I13">
-        <v>8998</v>
+        <v>9246.26</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>700</v>
+      <c r="K13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>378.5</v>
+        <v>400</v>
       </c>
       <c r="E14">
-        <v>17469.19</v>
+        <v>8925</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G14">
-        <v>3883.34</v>
+        <v>1451</v>
       </c>
       <c r="H14">
-        <v>3759.24</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>9126.610000000001</v>
+        <v>6909</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>700</v>
+      <c r="K14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
       <c r="D15">
-        <v>378.5</v>
+        <v>400</v>
       </c>
       <c r="E15">
-        <v>18351.57</v>
+        <v>9517.5</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G15">
-        <v>3883.34</v>
+        <v>1941.67</v>
       </c>
       <c r="H15">
-        <v>4770.23</v>
+        <v>101.83</v>
       </c>
       <c r="I15">
-        <v>8998</v>
+        <v>6909</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>700</v>
+      <c r="K15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>400</v>
       </c>
       <c r="E16">
-        <v>13414.5</v>
+        <v>18484</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G16">
-        <v>3716.5</v>
+        <v>3883.34</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>4902.66</v>
       </c>
       <c r="I16">
         <v>8969.5</v>
@@ -1333,323 +1261,323 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>728.5</v>
+      <c r="K16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>475</v>
+        <v>378.5</v>
       </c>
       <c r="E17">
-        <v>17593.26</v>
+        <v>14481.41</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G17">
         <v>3883.34</v>
       </c>
       <c r="H17">
-        <v>4011.92</v>
+        <v>900.0700000000001</v>
       </c>
       <c r="I17">
-        <v>8850.25</v>
+        <v>8998</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>847.75</v>
+      <c r="K17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="E18">
-        <v>22816.03</v>
+        <v>27213.8</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <v>3883.34</v>
       </c>
       <c r="H18">
-        <v>6470.84</v>
+        <v>6200</v>
       </c>
       <c r="I18">
-        <v>11614.11</v>
+        <v>16098.96</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>847.75</v>
+      <c r="K18" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>400</v>
+        <v>378.5</v>
       </c>
       <c r="E19">
-        <v>11372.5</v>
+        <v>15722.42</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G19">
-        <v>1674.5</v>
+        <v>3883.34</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2141.08</v>
       </c>
       <c r="I19">
-        <v>8969.5</v>
+        <v>8998</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>728.5</v>
+      <c r="K19" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E20">
-        <v>14647.5</v>
+        <v>23646</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G20">
         <v>3883.34</v>
       </c>
       <c r="H20">
-        <v>1066.16</v>
+        <v>6200</v>
       </c>
       <c r="I20">
-        <v>8969.5</v>
+        <v>12531.16</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>728.5</v>
+      <c r="K20" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="E21">
-        <v>20156.46</v>
+        <v>15393.75</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G21">
         <v>3883.34</v>
       </c>
       <c r="H21">
-        <v>5174.66</v>
+        <v>1812.41</v>
       </c>
       <c r="I21">
-        <v>10250.71</v>
+        <v>8666.5</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>847.75</v>
+      <c r="K21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>378.5</v>
+        <v>600</v>
       </c>
       <c r="E22">
-        <v>12381.68</v>
+        <v>14805</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G22">
-        <v>2683.68</v>
+        <v>2642.67</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2464.33</v>
       </c>
       <c r="I22">
-        <v>8998</v>
+        <v>8815</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>700</v>
+      <c r="K22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="E23">
-        <v>18856.87</v>
+        <v>19413.13</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G23">
         <v>3883.34</v>
       </c>
       <c r="H23">
-        <v>4776.84</v>
+        <v>5647.66</v>
       </c>
       <c r="I23">
-        <v>9348.940000000001</v>
+        <v>9002.120000000001</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>847.75</v>
+      <c r="K23" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="E24">
-        <v>1700</v>
+        <v>9787.059999999999</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1941.67</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2996.39</v>
       </c>
       <c r="I24">
-        <v>1315</v>
+        <v>4306.5</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>385</v>
+      <c r="K24" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>378.5</v>
+        <v>475</v>
       </c>
       <c r="E25">
-        <v>17281.37</v>
+        <v>4562.38</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G25">
-        <v>3837.07</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>3339.96</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>9404.34</v>
+        <v>4132.38</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>700</v>
+      <c r="K25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1660,31 +1588,31 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="E26">
-        <v>23380.5</v>
+        <v>5093.78</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G26">
-        <v>3883.34</v>
+        <v>244.78</v>
       </c>
       <c r="H26">
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>12265.66</v>
+        <v>4419</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26">
-        <v>1031.5</v>
+      <c r="K26" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1695,31 +1623,31 @@
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="E27">
-        <v>24461</v>
+        <v>6284.36</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G27">
-        <v>3883.34</v>
+        <v>1435.36</v>
       </c>
       <c r="H27">
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>13346.16</v>
+        <v>4419</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27">
-        <v>1031.5</v>
+      <c r="K27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1730,31 +1658,31 @@
         <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D28">
-        <v>378.5</v>
+        <v>475</v>
       </c>
       <c r="E28">
-        <v>22806.99</v>
+        <v>4342.49</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G28">
-        <v>3883.34</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>5769.08</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>12454.58</v>
+        <v>3957.49</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28">
-        <v>700</v>
+      <c r="K28" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1765,833 +1693,413 @@
         <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D29">
-        <v>600</v>
+        <v>378.5</v>
       </c>
       <c r="E29">
-        <v>28143</v>
+        <v>14991.44</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G29">
-        <v>3883.34</v>
+        <v>1941.67</v>
       </c>
       <c r="H29">
-        <v>6200</v>
+        <v>3339.96</v>
       </c>
       <c r="I29">
-        <v>17028.16</v>
+        <v>9189.809999999999</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29">
-        <v>1031.5</v>
+      <c r="K29" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D30">
-        <v>475</v>
+        <v>22000</v>
       </c>
       <c r="E30">
-        <v>20161.38</v>
+        <v>22000</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G30">
         <v>3883.34</v>
       </c>
       <c r="H30">
-        <v>6197.69</v>
+        <v>4154.66</v>
       </c>
       <c r="I30">
-        <v>9232.6</v>
+        <v>12542</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30">
-        <v>847.75</v>
+      <c r="K30" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="D31">
-        <v>475</v>
+        <v>22000</v>
       </c>
       <c r="E31">
-        <v>19862.49</v>
+        <v>22000</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G31">
         <v>3883.34</v>
       </c>
       <c r="H31">
-        <v>5798.77</v>
+        <v>4154.66</v>
       </c>
       <c r="I31">
-        <v>9332.629999999999</v>
+        <v>12542</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31">
-        <v>847.75</v>
+      <c r="K31" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32">
+        <v>14850</v>
+      </c>
+      <c r="E32">
+        <v>14850</v>
+      </c>
+      <c r="F32" t="s">
         <v>86</v>
       </c>
-      <c r="B32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32">
-        <v>475</v>
-      </c>
-      <c r="E32">
-        <v>15919.31</v>
-      </c>
-      <c r="F32" t="s">
-        <v>22</v>
-      </c>
       <c r="G32">
-        <v>3883.34</v>
+        <v>888</v>
       </c>
       <c r="H32">
-        <v>2337.97</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>8850.25</v>
+        <v>12964.25</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="K32">
-        <v>847.75</v>
+      <c r="K32" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D33">
-        <v>600</v>
+        <v>22000</v>
       </c>
       <c r="E33">
-        <v>19612.5</v>
+        <v>47000</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G33">
         <v>3883.34</v>
       </c>
       <c r="H33">
-        <v>5358.08</v>
+        <v>5000</v>
       </c>
       <c r="I33">
-        <v>9339.58</v>
+        <v>36696.66</v>
       </c>
       <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>1031.5</v>
+        <v>3340.92</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="D34">
-        <v>475</v>
+        <v>22000</v>
       </c>
       <c r="E34">
-        <v>15272.24</v>
+        <v>47000</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G34">
-        <v>1941.67</v>
+        <v>3883.34</v>
       </c>
       <c r="H34">
-        <v>3235.42</v>
+        <v>5000</v>
       </c>
       <c r="I34">
-        <v>9247.4</v>
+        <v>36696.66</v>
       </c>
       <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>847.75</v>
+        <v>3340.92</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D35">
-        <v>600</v>
+        <v>11550</v>
       </c>
       <c r="E35">
-        <v>28692.88</v>
+        <v>11550</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G35">
-        <v>3883.34</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>17578.04</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="K35">
-        <v>1031.5</v>
+      <c r="K35" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D36">
-        <v>475</v>
+        <v>16000</v>
       </c>
       <c r="E36">
-        <v>13684.24</v>
+        <v>16000</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G36">
-        <v>1941.67</v>
+        <v>2038</v>
       </c>
       <c r="H36">
-        <v>3235.42</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>8507.15</v>
+        <v>12902</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="K36">
-        <v>0</v>
+      <c r="K36" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D37">
-        <v>475</v>
+        <v>17600</v>
       </c>
       <c r="E37">
-        <v>15761.99</v>
+        <v>17600</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G37">
-        <v>1941.67</v>
+        <v>3638</v>
       </c>
       <c r="H37">
-        <v>3235.42</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>9737.15</v>
+        <v>12810.5</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="K37">
-        <v>847.75</v>
+      <c r="K37" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D38">
-        <v>475</v>
+        <v>17000</v>
       </c>
       <c r="E38">
-        <v>13136.07</v>
+        <v>17000</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G38">
-        <v>1941.67</v>
+        <v>3038</v>
       </c>
       <c r="H38">
-        <v>2417.45</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>7929.19</v>
+        <v>12842</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="K38">
-        <v>847.75</v>
+      <c r="K38" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="D39">
-        <v>600</v>
+        <v>52500</v>
       </c>
       <c r="E39">
-        <v>32313.75</v>
+        <v>52500</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="G39">
         <v>3883.34</v>
       </c>
       <c r="H39">
-        <v>6200</v>
+        <v>5000</v>
       </c>
       <c r="I39">
-        <v>21198.91</v>
+        <v>41604.16</v>
       </c>
       <c r="J39">
-        <v>180.06</v>
-      </c>
-      <c r="K39">
-        <v>1031.5</v>
+        <v>4567.79</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D40">
-        <v>400</v>
+        <v>35000</v>
       </c>
       <c r="E40">
-        <v>10134.5</v>
+        <v>35000</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="G40">
-        <v>1941.67</v>
+        <v>3883.34</v>
       </c>
       <c r="H40">
-        <v>3316.67</v>
+        <v>5000</v>
       </c>
       <c r="I40">
-        <v>4378.66</v>
+        <v>24366.66</v>
       </c>
       <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>497.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41">
-        <v>475</v>
-      </c>
-      <c r="E41">
-        <v>8378.77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41">
-        <v>1941.67</v>
-      </c>
-      <c r="H41">
-        <v>1588.1</v>
-      </c>
-      <c r="I41">
-        <v>4419</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42">
-        <v>22000</v>
-      </c>
-      <c r="E42">
-        <v>22000</v>
-      </c>
-      <c r="F42" t="s">
-        <v>111</v>
-      </c>
-      <c r="G42">
-        <v>3883.34</v>
-      </c>
-      <c r="H42">
-        <v>4154.66</v>
-      </c>
-      <c r="I42">
-        <v>12632</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43">
-        <v>22000</v>
-      </c>
-      <c r="E43">
-        <v>22000</v>
-      </c>
-      <c r="F43" t="s">
-        <v>111</v>
-      </c>
-      <c r="G43">
-        <v>3883.34</v>
-      </c>
-      <c r="H43">
-        <v>4154.66</v>
-      </c>
-      <c r="I43">
-        <v>12632</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44">
-        <v>14850</v>
-      </c>
-      <c r="E44">
-        <v>14850</v>
-      </c>
-      <c r="F44" t="s">
-        <v>111</v>
-      </c>
-      <c r="G44">
-        <v>888</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>12964.25</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>997.75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45">
-        <v>22000</v>
-      </c>
-      <c r="E45">
-        <v>47000</v>
-      </c>
-      <c r="F45" t="s">
-        <v>111</v>
-      </c>
-      <c r="G45">
-        <v>3883.34</v>
-      </c>
-      <c r="H45">
-        <v>5000</v>
-      </c>
-      <c r="I45">
-        <v>36786.66</v>
-      </c>
-      <c r="J45">
-        <v>3363.42</v>
-      </c>
-      <c r="K45">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46">
-        <v>22000</v>
-      </c>
-      <c r="E46">
-        <v>47000</v>
-      </c>
-      <c r="F46" t="s">
-        <v>111</v>
-      </c>
-      <c r="G46">
-        <v>3883.34</v>
-      </c>
-      <c r="H46">
-        <v>5000</v>
-      </c>
-      <c r="I46">
-        <v>36786.66</v>
-      </c>
-      <c r="J46">
-        <v>3363.42</v>
-      </c>
-      <c r="K46">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47">
-        <v>11550</v>
-      </c>
-      <c r="E47">
-        <v>11550</v>
-      </c>
-      <c r="F47" t="s">
-        <v>111</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>790.75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48">
-        <v>16000</v>
-      </c>
-      <c r="E48">
-        <v>16000</v>
-      </c>
-      <c r="F48" t="s">
-        <v>111</v>
-      </c>
-      <c r="G48">
-        <v>2038</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>12902</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49">
-        <v>17600</v>
-      </c>
-      <c r="E49">
-        <v>17600</v>
-      </c>
-      <c r="F49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G49">
-        <v>3638</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>12810.5</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>1151.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" t="s">
-        <v>134</v>
-      </c>
-      <c r="D50">
-        <v>17000</v>
-      </c>
-      <c r="E50">
-        <v>17000</v>
-      </c>
-      <c r="F50" t="s">
-        <v>111</v>
-      </c>
-      <c r="G50">
-        <v>3038</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>12842</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
-        <v>135</v>
-      </c>
-      <c r="B51" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51">
-        <v>52500</v>
-      </c>
-      <c r="E51">
-        <v>52500</v>
-      </c>
-      <c r="F51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G51">
-        <v>3883.34</v>
-      </c>
-      <c r="H51">
-        <v>5000</v>
-      </c>
-      <c r="I51">
-        <v>41829.16</v>
-      </c>
-      <c r="J51">
-        <v>4624.04</v>
-      </c>
-      <c r="K51">
-        <v>1787.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" t="s">
-        <v>141</v>
-      </c>
-      <c r="D52">
-        <v>35000</v>
-      </c>
-      <c r="E52">
-        <v>35000</v>
-      </c>
-      <c r="F52" t="s">
-        <v>138</v>
-      </c>
-      <c r="G52">
-        <v>3883.34</v>
-      </c>
-      <c r="H52">
-        <v>5000</v>
-      </c>
-      <c r="I52">
-        <v>24591.66</v>
-      </c>
-      <c r="J52">
-        <v>751.74</v>
-      </c>
-      <c r="K52">
-        <v>1525</v>
+        <v>706.73</v>
+      </c>
+      <c r="K40" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/payroll.xlsx
+++ b/payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -49,9 +49,33 @@
     <t>TAX WIDTHEL</t>
   </si>
   <si>
+    <t>TOTAL MANDATORY</t>
+  </si>
+  <si>
     <t>TAX/MWE</t>
   </si>
   <si>
+    <t>2076</t>
+  </si>
+  <si>
+    <t>PATAMBAG,JUNEL</t>
+  </si>
+  <si>
+    <t>DT Driver</t>
+  </si>
+  <si>
+    <t>Rizal-R&amp;F</t>
+  </si>
+  <si>
+    <t>Taxable</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>CONOMON,DONALD</t>
+  </si>
+  <si>
     <t>2092</t>
   </si>
   <si>
@@ -61,12 +85,6 @@
     <t>OPERATOR</t>
   </si>
   <si>
-    <t>Rizal-R&amp;F</t>
-  </si>
-  <si>
-    <t>Taxable</t>
-  </si>
-  <si>
     <t>2099</t>
   </si>
   <si>
@@ -109,9 +127,6 @@
     <t>CALATCAT,ROGELIO, JR.</t>
   </si>
   <si>
-    <t>DT Driver</t>
-  </si>
-  <si>
     <t>2110</t>
   </si>
   <si>
@@ -184,12 +199,33 @@
     <t>Tire Man</t>
   </si>
   <si>
+    <t>2136</t>
+  </si>
+  <si>
+    <t>CONOMON,DOMINADOR</t>
+  </si>
+  <si>
     <t>2138</t>
   </si>
   <si>
     <t>BOISER,JEFFREY</t>
   </si>
   <si>
+    <t>2140</t>
+  </si>
+  <si>
+    <t>ALBOR,FELMAR</t>
+  </si>
+  <si>
+    <t>2151</t>
+  </si>
+  <si>
+    <t>ENDRANO ,PRECIOSO ARVIN</t>
+  </si>
+  <si>
+    <t>MECHANIC</t>
+  </si>
+  <si>
     <t>2149</t>
   </si>
   <si>
@@ -208,6 +244,12 @@
     <t>APILADO,VIC JR</t>
   </si>
   <si>
+    <t>2155</t>
+  </si>
+  <si>
+    <t>CARAJASAN,REYNALD</t>
+  </si>
+  <si>
     <t>2158</t>
   </si>
   <si>
@@ -224,45 +266,6 @@
   </si>
   <si>
     <t>GABAY,DENNIS</t>
-  </si>
-  <si>
-    <t>2076</t>
-  </si>
-  <si>
-    <t>PATAMBAG,JUNEL</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>CONOMON,DONALD</t>
-  </si>
-  <si>
-    <t>2136</t>
-  </si>
-  <si>
-    <t>CONOMON,DOMINADOR</t>
-  </si>
-  <si>
-    <t>2140</t>
-  </si>
-  <si>
-    <t>ALBOR,FELMAR</t>
-  </si>
-  <si>
-    <t>2155</t>
-  </si>
-  <si>
-    <t>CARAJASAN,REYNALD</t>
-  </si>
-  <si>
-    <t>2151</t>
-  </si>
-  <si>
-    <t>ENDRANO ,PRECIOSO ARVIN</t>
-  </si>
-  <si>
-    <t>MECHANIC</t>
   </si>
   <si>
     <t>2003</t>
@@ -699,13 +702,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -739,78 +742,87 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2">
+        <v>475</v>
+      </c>
+      <c r="E2">
+        <v>16245.96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>3883.34</v>
+      </c>
+      <c r="H2">
+        <v>2664.62</v>
+      </c>
+      <c r="I2">
+        <v>8998</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>700</v>
       </c>
-      <c r="E2">
-        <v>22897.01</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
-        <v>3883.34</v>
-      </c>
-      <c r="H2">
-        <v>5983.34</v>
-      </c>
-      <c r="I2">
-        <v>11847.33</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
       <c r="D3">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="E3">
-        <v>28334.25</v>
+        <v>14283.77</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>3883.34</v>
       </c>
       <c r="H3">
-        <v>6200</v>
+        <v>702.4299999999999</v>
       </c>
       <c r="I3">
-        <v>17219.41</v>
+        <v>9065.5</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>632.5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -821,31 +833,34 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E4">
-        <v>18087.51</v>
+        <v>20810.13</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>3883.34</v>
       </c>
       <c r="H4">
-        <v>4506.16</v>
+        <v>5983.34</v>
       </c>
       <c r="I4">
-        <v>8818</v>
+        <v>9887.200000000001</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4">
+        <v>1056.25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -856,31 +871,34 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E5">
-        <v>13149</v>
+        <v>42461.13</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>3094.17</v>
+        <v>3883.34</v>
       </c>
       <c r="H5">
-        <v>356.83</v>
+        <v>5983.34</v>
       </c>
       <c r="I5">
-        <v>8969.5</v>
+        <v>31411.45</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>2115.69</v>
+      </c>
+      <c r="K5">
+        <v>1183</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -891,31 +909,34 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E6">
-        <v>19758.5</v>
+        <v>17664.38</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>3883.34</v>
       </c>
       <c r="H6">
-        <v>5523</v>
+        <v>4083.04</v>
       </c>
       <c r="I6">
-        <v>9809.66</v>
+        <v>8818</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6">
+        <v>880</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -926,31 +947,34 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="E7">
-        <v>19982.77</v>
+        <v>13669</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>3883.34</v>
+        <v>3725.17</v>
       </c>
       <c r="H7">
-        <v>6104.16</v>
+        <v>245.83</v>
       </c>
       <c r="I7">
-        <v>9332.780000000001</v>
+        <v>8969.5</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7">
+        <v>728.5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -958,69 +982,75 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8">
+        <v>400</v>
+      </c>
+      <c r="E8">
+        <v>18210</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>3883.34</v>
+      </c>
+      <c r="H8">
+        <v>4628.66</v>
+      </c>
+      <c r="I8">
+        <v>8969.5</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>728.5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
         <v>475</v>
       </c>
-      <c r="E8">
-        <v>21017.82</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>3883.34</v>
-      </c>
-      <c r="H8">
-        <v>6470.84</v>
-      </c>
-      <c r="I8">
-        <v>9815.889999999999</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>378.5</v>
-      </c>
       <c r="E9">
-        <v>2744.13</v>
+        <v>17586.25</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3883.34</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4004.91</v>
       </c>
       <c r="I9">
-        <v>2744.13</v>
+        <v>9035.5</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9">
+        <v>662.5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1028,139 +1058,151 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>475</v>
+      </c>
+      <c r="E10">
+        <v>18123.56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>3883.34</v>
+      </c>
+      <c r="H10">
+        <v>4542.22</v>
+      </c>
+      <c r="I10">
+        <v>8850.25</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>847.75</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="D10">
-        <v>378.5</v>
-      </c>
-      <c r="E10">
-        <v>17858.58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>3883.34</v>
-      </c>
-      <c r="H10">
-        <v>4277.24</v>
-      </c>
-      <c r="I10">
-        <v>8998</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
       </c>
       <c r="D11">
         <v>378.5</v>
       </c>
       <c r="E11">
-        <v>14784.21</v>
+        <v>11070.18</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>2282.85</v>
+        <v>1754.88</v>
       </c>
       <c r="H11">
-        <v>2803.36</v>
+        <v>0</v>
       </c>
       <c r="I11">
+        <v>8705.299999999999</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>610</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>378.5</v>
+      </c>
+      <c r="E12">
+        <v>16606.68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>3883.34</v>
+      </c>
+      <c r="H12">
+        <v>3025.34</v>
+      </c>
+      <c r="I12">
         <v>8998</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>700</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="D12">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
         <v>400</v>
       </c>
-      <c r="E12">
-        <v>14599</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <v>3662.67</v>
-      </c>
-      <c r="H12">
-        <v>1238.33</v>
-      </c>
-      <c r="I12">
+      <c r="E13">
+        <v>16072</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>3835.17</v>
+      </c>
+      <c r="H13">
+        <v>2538.83</v>
+      </c>
+      <c r="I13">
         <v>8969.5</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13">
-        <v>475</v>
-      </c>
-      <c r="E13">
-        <v>19521.53</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>3883.34</v>
-      </c>
-      <c r="H13">
-        <v>5544.19</v>
-      </c>
-      <c r="I13">
-        <v>9246.26</v>
-      </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13">
+        <v>728.5</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1174,28 +1216,31 @@
         <v>400</v>
       </c>
       <c r="E14">
-        <v>8925</v>
+        <v>13219</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14">
-        <v>1451</v>
+        <v>3096.67</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>424.33</v>
       </c>
       <c r="I14">
-        <v>6909</v>
+        <v>8969.5</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="K14">
+        <v>728.5</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1203,34 +1248,37 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="E15">
-        <v>9517.5</v>
+        <v>16323.74</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15">
-        <v>1941.67</v>
+        <v>3883.34</v>
       </c>
       <c r="H15">
-        <v>101.83</v>
+        <v>2742.4</v>
       </c>
       <c r="I15">
-        <v>6909</v>
+        <v>8968.75</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15">
+        <v>729.25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1244,28 +1292,31 @@
         <v>400</v>
       </c>
       <c r="E16">
-        <v>18484</v>
+        <v>12759</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16">
-        <v>3883.34</v>
+        <v>2964.17</v>
       </c>
       <c r="H16">
-        <v>4902.66</v>
+        <v>96.83</v>
       </c>
       <c r="I16">
-        <v>8969.5</v>
+        <v>9043</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="K16">
+        <v>655</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1273,34 +1324,37 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D17">
-        <v>378.5</v>
+        <v>450</v>
       </c>
       <c r="E17">
-        <v>14481.41</v>
+        <v>11953.13</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17">
-        <v>3883.34</v>
+        <v>1941.67</v>
       </c>
       <c r="H17">
-        <v>900.0700000000001</v>
+        <v>887.45</v>
       </c>
       <c r="I17">
-        <v>8998</v>
+        <v>8469</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="K17">
+        <v>655</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1308,427 +1362,463 @@
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D18">
+        <v>400</v>
+      </c>
+      <c r="E18">
+        <v>17401.5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>3883.34</v>
+      </c>
+      <c r="H18">
+        <v>3820.16</v>
+      </c>
+      <c r="I18">
+        <v>8969.5</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>728.5</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>475</v>
+      </c>
+      <c r="E19">
+        <v>17946.18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>3883.34</v>
+      </c>
+      <c r="H19">
+        <v>4025.27</v>
+      </c>
+      <c r="I19">
+        <v>9308.32</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>729.25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>378.5</v>
+      </c>
+      <c r="E20">
+        <v>11294.44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>1596.44</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>9110.5</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>587.5</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>475</v>
+      </c>
+      <c r="E21">
+        <v>17602.28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>3883.34</v>
+      </c>
+      <c r="H21">
+        <v>4020.94</v>
+      </c>
+      <c r="I21">
+        <v>8850.25</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>847.75</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22">
+        <v>378.5</v>
+      </c>
+      <c r="E22">
+        <v>27562.37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>3883.34</v>
+      </c>
+      <c r="H22">
+        <v>6679.92</v>
+      </c>
+      <c r="I22">
+        <v>16299.11</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>700</v>
+      </c>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
         <v>600</v>
       </c>
-      <c r="E18">
-        <v>27213.8</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E23">
+        <v>36966.75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23">
+        <v>3883.34</v>
+      </c>
+      <c r="H23">
+        <v>6200</v>
+      </c>
+      <c r="I23">
+        <v>25851.91</v>
+      </c>
+      <c r="J23">
+        <v>1003.78</v>
+      </c>
+      <c r="K23">
+        <v>1031.5</v>
+      </c>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>378.5</v>
+      </c>
+      <c r="E24">
+        <v>15920.66</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>3883.34</v>
+      </c>
+      <c r="H24">
+        <v>2339.32</v>
+      </c>
+      <c r="I24">
+        <v>8998</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>700</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>650</v>
+      </c>
+      <c r="E25">
+        <v>33110.19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>3883.34</v>
+      </c>
+      <c r="H25">
+        <v>6091.66</v>
+      </c>
+      <c r="I25">
+        <v>22084.18</v>
+      </c>
+      <c r="J25">
+        <v>250.23</v>
+      </c>
+      <c r="K25">
+        <v>1051</v>
+      </c>
+      <c r="L25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
         <v>15</v>
-      </c>
-      <c r="G18">
-        <v>3883.34</v>
-      </c>
-      <c r="H18">
-        <v>6200</v>
-      </c>
-      <c r="I18">
-        <v>16098.96</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19">
-        <v>378.5</v>
-      </c>
-      <c r="E19">
-        <v>15722.42</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19">
-        <v>3883.34</v>
-      </c>
-      <c r="H19">
-        <v>2141.08</v>
-      </c>
-      <c r="I19">
-        <v>8998</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20">
-        <v>600</v>
-      </c>
-      <c r="E20">
-        <v>23646</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20">
-        <v>3883.34</v>
-      </c>
-      <c r="H20">
-        <v>6200</v>
-      </c>
-      <c r="I20">
-        <v>12531.16</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>600</v>
-      </c>
-      <c r="E21">
-        <v>15393.75</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21">
-        <v>3883.34</v>
-      </c>
-      <c r="H21">
-        <v>1812.41</v>
-      </c>
-      <c r="I21">
-        <v>8666.5</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22">
-        <v>600</v>
-      </c>
-      <c r="E22">
-        <v>14805</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22">
-        <v>2642.67</v>
-      </c>
-      <c r="H22">
-        <v>2464.33</v>
-      </c>
-      <c r="I22">
-        <v>8815</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23">
-        <v>500</v>
-      </c>
-      <c r="E23">
-        <v>19413.13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23">
-        <v>3883.34</v>
-      </c>
-      <c r="H23">
-        <v>5647.66</v>
-      </c>
-      <c r="I23">
-        <v>9002.120000000001</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24">
-        <v>475</v>
-      </c>
-      <c r="E24">
-        <v>9787.059999999999</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24">
-        <v>1941.67</v>
-      </c>
-      <c r="H24">
-        <v>2996.39</v>
-      </c>
-      <c r="I24">
-        <v>4306.5</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25">
-        <v>475</v>
-      </c>
-      <c r="E25">
-        <v>4562.38</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>4132.38</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
       </c>
       <c r="D26">
         <v>475</v>
       </c>
       <c r="E26">
-        <v>5093.78</v>
+        <v>17149.02</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26">
-        <v>244.78</v>
+        <v>3883.34</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>3567.68</v>
       </c>
       <c r="I26">
-        <v>4419</v>
+        <v>9020.5</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="K26">
+        <v>677.5</v>
+      </c>
+      <c r="L26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="E27">
-        <v>6284.36</v>
+        <v>14402.25</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27">
-        <v>1435.36</v>
+        <v>1941.67</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2811.58</v>
       </c>
       <c r="I27">
-        <v>4419</v>
+        <v>8860.5</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="K27">
+        <v>788.5</v>
+      </c>
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="E28">
-        <v>4342.49</v>
+        <v>18611</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3883.34</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4513.33</v>
       </c>
       <c r="I28">
-        <v>3957.49</v>
+        <v>9511.33</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="K28">
+        <v>703</v>
+      </c>
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D29">
-        <v>378.5</v>
+        <v>500</v>
       </c>
       <c r="E29">
-        <v>14991.44</v>
+        <v>18985.01</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29">
-        <v>1941.67</v>
+        <v>3883.34</v>
       </c>
       <c r="H29">
-        <v>3339.96</v>
+        <v>5180.79</v>
       </c>
       <c r="I29">
-        <v>9189.809999999999</v>
+        <v>9040.870000000001</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="K29">
+        <v>880</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30">
         <v>22000</v>
@@ -1737,7 +1827,7 @@
         <v>22000</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G30">
         <v>3883.34</v>
@@ -1751,19 +1841,22 @@
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="K30">
+        <v>1420</v>
+      </c>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>22000</v>
@@ -1772,7 +1865,7 @@
         <v>22000</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G31">
         <v>3883.34</v>
@@ -1786,19 +1879,22 @@
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="K31">
+        <v>1420</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32">
         <v>14850</v>
@@ -1807,7 +1903,7 @@
         <v>14850</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G32">
         <v>888</v>
@@ -1821,19 +1917,22 @@
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="K32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="K32">
+        <v>997.75</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33">
         <v>22000</v>
@@ -1842,7 +1941,7 @@
         <v>47000</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G33">
         <v>3883.34</v>
@@ -1856,19 +1955,22 @@
       <c r="J33">
         <v>3340.92</v>
       </c>
-      <c r="K33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="K33">
+        <v>1420</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34">
         <v>22000</v>
@@ -1877,7 +1979,7 @@
         <v>47000</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G34">
         <v>3883.34</v>
@@ -1891,19 +1993,22 @@
       <c r="J34">
         <v>3340.92</v>
       </c>
-      <c r="K34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="K34">
+        <v>1420</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35">
         <v>11550</v>
@@ -1912,7 +2017,7 @@
         <v>11550</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1926,16 +2031,19 @@
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="K35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="K35">
+        <v>790.75</v>
+      </c>
+      <c r="L35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36">
         <v>16000</v>
@@ -1944,7 +2052,7 @@
         <v>16000</v>
       </c>
       <c r="F36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G36">
         <v>2038</v>
@@ -1958,19 +2066,22 @@
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="K36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="K36">
+        <v>1060</v>
+      </c>
+      <c r="L36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37">
         <v>17600</v>
@@ -1979,7 +2090,7 @@
         <v>17600</v>
       </c>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G37">
         <v>3638</v>
@@ -1993,19 +2104,22 @@
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="K37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="K37">
+        <v>1151.5</v>
+      </c>
+      <c r="L37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38">
         <v>17000</v>
@@ -2014,7 +2128,7 @@
         <v>17000</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G38">
         <v>3038</v>
@@ -2028,19 +2142,22 @@
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="K38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="K38">
+        <v>1120</v>
+      </c>
+      <c r="L38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39">
         <v>52500</v>
@@ -2049,7 +2166,7 @@
         <v>52500</v>
       </c>
       <c r="F39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G39">
         <v>3883.34</v>
@@ -2063,19 +2180,22 @@
       <c r="J39">
         <v>4567.79</v>
       </c>
-      <c r="K39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="K39">
+        <v>2012.5</v>
+      </c>
+      <c r="L39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40">
         <v>35000</v>
@@ -2084,7 +2204,7 @@
         <v>35000</v>
       </c>
       <c r="F40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G40">
         <v>3883.34</v>
@@ -2098,8 +2218,11 @@
       <c r="J40">
         <v>706.73</v>
       </c>
-      <c r="K40" t="s">
-        <v>16</v>
+      <c r="K40">
+        <v>1750</v>
+      </c>
+      <c r="L40" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/payroll.xlsx
+++ b/payroll.xlsx
@@ -55,6 +55,21 @@
     <t>TAX/MWE</t>
   </si>
   <si>
+    <t>4001</t>
+  </si>
+  <si>
+    <t>GABAY,DENNIS</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Surigao</t>
+  </si>
+  <si>
+    <t>Taxable</t>
+  </si>
+  <si>
     <t>2076</t>
   </si>
   <si>
@@ -67,9 +82,6 @@
     <t>Rizal-R&amp;F</t>
   </si>
   <si>
-    <t>Taxable</t>
-  </si>
-  <si>
     <t>2102</t>
   </si>
   <si>
@@ -133,15 +145,6 @@
     <t>GONZALES,MARK</t>
   </si>
   <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>FUENTES,IAN JAMES</t>
-  </si>
-  <si>
-    <t>Warehouse man</t>
-  </si>
-  <si>
     <t>2113</t>
   </si>
   <si>
@@ -166,9 +169,6 @@
     <t>CAMANIA,JEREMIAH</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>2125</t>
   </si>
   <si>
@@ -250,6 +250,12 @@
     <t>CARAJASAN,REYNALD</t>
   </si>
   <si>
+    <t>2157</t>
+  </si>
+  <si>
+    <t>CAPAROSO,ROGER SR</t>
+  </si>
+  <si>
     <t>2158</t>
   </si>
   <si>
@@ -262,12 +268,6 @@
     <t>Barrientos,Abejoy</t>
   </si>
   <si>
-    <t>4001</t>
-  </si>
-  <si>
-    <t>GABAY,DENNIS</t>
-  </si>
-  <si>
     <t>2003</t>
   </si>
   <si>
@@ -298,6 +298,15 @@
     <t>Admin Assitant</t>
   </si>
   <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>Defensor,Maria Theresa</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
     <t>2008</t>
   </si>
   <si>
@@ -305,15 +314,6 @@
   </si>
   <si>
     <t>Purchasing Officer</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>Defensor,Maria Theresa</t>
-  </si>
-  <si>
-    <t>President</t>
   </si>
   <si>
     <t>2007</t>
@@ -757,10 +757,10 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="E2">
-        <v>16245.96</v>
+        <v>24911.25</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -769,16 +769,16 @@
         <v>3883.34</v>
       </c>
       <c r="H2">
-        <v>2664.62</v>
+        <v>6416.66</v>
       </c>
       <c r="I2">
-        <v>8998</v>
+        <v>13731.25</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>700</v>
+        <v>880</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -792,31 +792,31 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>475</v>
       </c>
       <c r="E3">
-        <v>14283.77</v>
+        <v>11069.64</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>3883.34</v>
+        <v>1941.67</v>
       </c>
       <c r="H3">
-        <v>702.4299999999999</v>
+        <v>590.26</v>
       </c>
       <c r="I3">
-        <v>9065.5</v>
+        <v>7689.96</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>632.5</v>
+        <v>847.75</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -824,37 +824,37 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
       <c r="D4">
-        <v>700</v>
+        <v>475</v>
       </c>
       <c r="E4">
-        <v>20810.13</v>
+        <v>9774.280000000001</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>3883.34</v>
+        <v>344.5</v>
       </c>
       <c r="H4">
-        <v>5983.34</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>9887.200000000001</v>
+        <v>8842.280000000001</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1056.25</v>
+        <v>587.5</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -862,37 +862,37 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>700</v>
       </c>
       <c r="E5">
-        <v>42461.13</v>
+        <v>22583.76</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>3883.34</v>
       </c>
       <c r="H5">
-        <v>5983.34</v>
+        <v>5917.88</v>
       </c>
       <c r="I5">
-        <v>31411.45</v>
+        <v>11726.29</v>
       </c>
       <c r="J5">
-        <v>2115.69</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1183</v>
+        <v>1056.25</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -900,37 +900,37 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E6">
-        <v>17664.38</v>
+        <v>39611.26</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>3883.34</v>
       </c>
       <c r="H6">
-        <v>4083.04</v>
+        <v>5983.34</v>
       </c>
       <c r="I6">
-        <v>8818</v>
+        <v>28561.58</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1545.71</v>
       </c>
       <c r="K6">
-        <v>880</v>
+        <v>1183</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -938,37 +938,37 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E7">
-        <v>13669</v>
+        <v>19692.82</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>3725.17</v>
+        <v>3883.34</v>
       </c>
       <c r="H7">
-        <v>245.83</v>
+        <v>5946.1</v>
       </c>
       <c r="I7">
-        <v>8969.5</v>
+        <v>8983.370000000001</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>728.5</v>
+        <v>880</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -976,28 +976,28 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>400</v>
       </c>
       <c r="E8">
-        <v>18210</v>
+        <v>15094.5</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G8">
         <v>3883.34</v>
       </c>
       <c r="H8">
-        <v>4628.66</v>
+        <v>1513.16</v>
       </c>
       <c r="I8">
         <v>8969.5</v>
@@ -1014,37 +1014,37 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="E9">
-        <v>17586.25</v>
+        <v>20971</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>3883.34</v>
       </c>
       <c r="H9">
-        <v>4004.91</v>
+        <v>6420.5</v>
       </c>
       <c r="I9">
-        <v>9035.5</v>
+        <v>9938.66</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>662.5</v>
+        <v>728.5</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -1052,37 +1052,37 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>475</v>
       </c>
       <c r="E10">
-        <v>18123.56</v>
+        <v>18185.87</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G10">
         <v>3883.34</v>
       </c>
       <c r="H10">
-        <v>4542.22</v>
+        <v>4604.53</v>
       </c>
       <c r="I10">
-        <v>8850.25</v>
+        <v>9035.5</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>847.75</v>
+        <v>662.5</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -1090,37 +1090,37 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>378.5</v>
+        <v>475</v>
       </c>
       <c r="E11">
-        <v>11070.18</v>
+        <v>14900.72</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>1754.88</v>
+        <v>2513.89</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2688.83</v>
       </c>
       <c r="I11">
-        <v>8705.299999999999</v>
+        <v>8939.120000000001</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>610</v>
+        <v>758.88</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -1128,28 +1128,28 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>378.5</v>
       </c>
       <c r="E12">
-        <v>16606.68</v>
+        <v>17900.69</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G12">
         <v>3883.34</v>
       </c>
       <c r="H12">
-        <v>3025.34</v>
+        <v>4319.35</v>
       </c>
       <c r="I12">
         <v>8998</v>
@@ -1166,28 +1166,28 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>400</v>
       </c>
       <c r="E13">
-        <v>16072</v>
+        <v>17345.5</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G13">
-        <v>3835.17</v>
+        <v>3883.34</v>
       </c>
       <c r="H13">
-        <v>2538.83</v>
+        <v>3764.16</v>
       </c>
       <c r="I13">
         <v>8969.5</v>
@@ -1204,28 +1204,28 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>400</v>
       </c>
       <c r="E14">
-        <v>13219</v>
+        <v>12569.5</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G14">
-        <v>3096.67</v>
+        <v>2871.5</v>
       </c>
       <c r="H14">
-        <v>424.33</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>8969.5</v>
@@ -1248,31 +1248,31 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>475</v>
       </c>
       <c r="E15">
-        <v>16323.74</v>
+        <v>15232.31</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G15">
-        <v>3883.34</v>
+        <v>3369.48</v>
       </c>
       <c r="H15">
-        <v>2742.4</v>
+        <v>2164.83</v>
       </c>
       <c r="I15">
-        <v>8968.75</v>
+        <v>8850.25</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>729.25</v>
+        <v>847.75</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1292,16 +1292,16 @@
         <v>400</v>
       </c>
       <c r="E16">
-        <v>12759</v>
+        <v>11966.5</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G16">
-        <v>2964.17</v>
+        <v>2268.5</v>
       </c>
       <c r="H16">
-        <v>96.83</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>9043</v>
@@ -1330,25 +1330,25 @@
         <v>450</v>
       </c>
       <c r="E17">
-        <v>11953.13</v>
+        <v>14936.07</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G17">
-        <v>1941.67</v>
+        <v>3883.34</v>
       </c>
       <c r="H17">
-        <v>887.45</v>
+        <v>1354.73</v>
       </c>
       <c r="I17">
-        <v>8469</v>
+        <v>8905</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>655</v>
+        <v>793</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1368,16 +1368,16 @@
         <v>400</v>
       </c>
       <c r="E18">
-        <v>17401.5</v>
+        <v>18962</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G18">
         <v>3883.34</v>
       </c>
       <c r="H18">
-        <v>3820.16</v>
+        <v>5380.66</v>
       </c>
       <c r="I18">
         <v>8969.5</v>
@@ -1400,31 +1400,31 @@
         <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>475</v>
       </c>
       <c r="E19">
-        <v>17946.18</v>
+        <v>19786.69</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G19">
         <v>3883.34</v>
       </c>
       <c r="H19">
-        <v>4025.27</v>
+        <v>6071.19</v>
       </c>
       <c r="I19">
-        <v>9308.32</v>
+        <v>8984.41</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>729.25</v>
+        <v>847.75</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -1438,31 +1438,31 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D20">
         <v>378.5</v>
       </c>
       <c r="E20">
-        <v>11294.44</v>
+        <v>12616.83</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G20">
-        <v>1596.44</v>
+        <v>2918.83</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9110.5</v>
+        <v>9065.5</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>587.5</v>
+        <v>632.5</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -1476,22 +1476,22 @@
         <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>475</v>
       </c>
       <c r="E21">
-        <v>17602.28</v>
+        <v>18013.72</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G21">
         <v>3883.34</v>
       </c>
       <c r="H21">
-        <v>4020.94</v>
+        <v>4432.38</v>
       </c>
       <c r="I21">
         <v>8850.25</v>
@@ -1520,10 +1520,10 @@
         <v>378.5</v>
       </c>
       <c r="E22">
-        <v>27562.37</v>
+        <v>26594.83</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>3883.34</v>
@@ -1532,7 +1532,7 @@
         <v>6679.92</v>
       </c>
       <c r="I22">
-        <v>16299.11</v>
+        <v>15331.57</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1552,16 +1552,16 @@
         <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D23">
         <v>600</v>
       </c>
       <c r="E23">
-        <v>36966.75</v>
+        <v>25507.5</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G23">
         <v>3883.34</v>
@@ -1570,10 +1570,10 @@
         <v>6200</v>
       </c>
       <c r="I23">
-        <v>25851.91</v>
+        <v>14392.66</v>
       </c>
       <c r="J23">
-        <v>1003.78</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>1031.5</v>
@@ -1590,22 +1590,22 @@
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D24">
         <v>378.5</v>
       </c>
       <c r="E24">
-        <v>15920.66</v>
+        <v>16691.38</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G24">
         <v>3883.34</v>
       </c>
       <c r="H24">
-        <v>2339.32</v>
+        <v>3110.04</v>
       </c>
       <c r="I24">
         <v>8998</v>
@@ -1628,16 +1628,16 @@
         <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <v>650</v>
       </c>
       <c r="E25">
-        <v>33110.19</v>
+        <v>29176.07</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G25">
         <v>3883.34</v>
@@ -1646,13 +1646,13 @@
         <v>6091.66</v>
       </c>
       <c r="I25">
-        <v>22084.18</v>
+        <v>18082.55</v>
       </c>
       <c r="J25">
-        <v>250.23</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1051</v>
+        <v>1118.5</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
@@ -1666,31 +1666,31 @@
         <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>475</v>
       </c>
       <c r="E26">
-        <v>17149.02</v>
+        <v>18874.73</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G26">
         <v>3883.34</v>
       </c>
       <c r="H26">
-        <v>3567.68</v>
+        <v>4993.89</v>
       </c>
       <c r="I26">
-        <v>9020.5</v>
+        <v>9149.76</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>677.5</v>
+        <v>847.75</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -1704,31 +1704,31 @@
         <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="E27">
-        <v>14402.25</v>
+        <v>18437.13</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G27">
-        <v>1941.67</v>
+        <v>3883.34</v>
       </c>
       <c r="H27">
-        <v>2811.58</v>
+        <v>4173</v>
       </c>
       <c r="I27">
-        <v>8860.5</v>
+        <v>9533.040000000001</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>788.5</v>
+        <v>847.75</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -1742,31 +1742,31 @@
         <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28">
         <v>600</v>
       </c>
       <c r="E28">
-        <v>18611</v>
+        <v>19589.25</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G28">
         <v>3883.34</v>
       </c>
       <c r="H28">
-        <v>4513.33</v>
+        <v>6007.91</v>
       </c>
       <c r="I28">
-        <v>9511.33</v>
+        <v>8909.5</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>703</v>
+        <v>788.5</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
@@ -1780,31 +1780,31 @@
         <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E29">
-        <v>18985.01</v>
+        <v>16076.25</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G29">
-        <v>3883.34</v>
+        <v>2372.67</v>
       </c>
       <c r="H29">
-        <v>5180.79</v>
+        <v>3100</v>
       </c>
       <c r="I29">
-        <v>9040.870000000001</v>
+        <v>9900.58</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>880</v>
+        <v>703</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
@@ -1836,7 +1836,7 @@
         <v>4154.66</v>
       </c>
       <c r="I30">
-        <v>12542</v>
+        <v>11786</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>4154.66</v>
       </c>
       <c r="I31">
-        <v>12542</v>
+        <v>11786</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>12964.25</v>
+        <v>10832.25</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>4058.25</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>12902</v>
+        <v>10770</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>12810.5</v>
+        <v>10678.5</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>12842</v>
+        <v>10710</v>
       </c>
       <c r="J38">
         <v>0</v>

--- a/payroll.xlsx
+++ b/payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -64,21 +64,42 @@
     <t>DATE</t>
   </si>
   <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>CALATCAT,ROGELIO, JR.</t>
+  </si>
+  <si>
+    <t>DT Driver</t>
+  </si>
+  <si>
+    <t>Zamboanga</t>
+  </si>
+  <si>
+    <t>Taxable</t>
+  </si>
+  <si>
+    <t>2132</t>
+  </si>
+  <si>
+    <t>MARTINEZ,RENAN</t>
+  </si>
+  <si>
+    <t>Tire Man</t>
+  </si>
+  <si>
+    <t>Surigao</t>
+  </si>
+  <si>
     <t>2102</t>
   </si>
   <si>
     <t>CONOMON,DONALD</t>
   </si>
   <si>
-    <t>DT Driver</t>
-  </si>
-  <si>
     <t>Rizal-R&amp;F</t>
   </si>
   <si>
-    <t>Taxable</t>
-  </si>
-  <si>
     <t>2092</t>
   </si>
   <si>
@@ -151,21 +172,21 @@
     <t>VISTAL,CHITO</t>
   </si>
   <si>
+    <t>2129</t>
+  </si>
+  <si>
+    <t>SEVERO,JONEL</t>
+  </si>
+  <si>
+    <t>Helper Mechanic</t>
+  </si>
+  <si>
     <t>2130</t>
   </si>
   <si>
     <t>BRIOSO,MARC LLYOD</t>
   </si>
   <si>
-    <t>Helper Mechanic</t>
-  </si>
-  <si>
-    <t>2129</t>
-  </si>
-  <si>
-    <t>SEVERO,JONEL</t>
-  </si>
-  <si>
     <t>2138</t>
   </si>
   <si>
@@ -211,37 +232,16 @@
     <t>TOGUENIO,HENRY</t>
   </si>
   <si>
+    <t>2161</t>
+  </si>
+  <si>
+    <t>Barrientos,Abejoy</t>
+  </si>
+  <si>
     <t>4001</t>
   </si>
   <si>
     <t>GABAY,DENNIS</t>
-  </si>
-  <si>
-    <t>2161</t>
-  </si>
-  <si>
-    <t>Barrientos,Abejoy</t>
-  </si>
-  <si>
-    <t>2132</t>
-  </si>
-  <si>
-    <t>MARTINEZ,RENAN</t>
-  </si>
-  <si>
-    <t>Tire Man</t>
-  </si>
-  <si>
-    <t>Surigao</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>CALATCAT,ROGELIO, JR.</t>
-  </si>
-  <si>
-    <t>Zamboanga</t>
   </si>
   <si>
     <t>2003</t>
@@ -684,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,7 +754,7 @@
         <v>475</v>
       </c>
       <c r="E2">
-        <v>12298.34</v>
+        <v>8003.75</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -763,10 +763,10 @@
         <v>1941.67</v>
       </c>
       <c r="H2">
-        <v>3235.42</v>
+        <v>1499.08</v>
       </c>
       <c r="I2">
-        <v>7121.26</v>
+        <v>4563</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -801,22 +801,22 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>700</v>
+        <v>420</v>
       </c>
       <c r="E3">
-        <v>9616.25</v>
+        <v>10431.23</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G3">
         <v>1941.67</v>
       </c>
       <c r="H3">
-        <v>2461.58</v>
+        <v>3295</v>
       </c>
       <c r="I3">
-        <v>5213</v>
+        <v>5194.56</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -837,36 +837,36 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>700</v>
+        <v>475</v>
       </c>
       <c r="E4">
-        <v>14426.12</v>
+        <v>3696.75</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>1941.67</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2991.67</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>9492.790000000001</v>
+        <v>3696.75</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -887,33 +887,33 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>700</v>
+      </c>
+      <c r="E5">
+        <v>8045.63</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>500</v>
-      </c>
-      <c r="E5">
-        <v>8771.879999999999</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
       </c>
       <c r="G5">
         <v>1941.67</v>
       </c>
       <c r="H5">
-        <v>1617.2</v>
+        <v>890.95</v>
       </c>
       <c r="I5">
         <v>5213</v>
@@ -937,36 +937,36 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>420</v>
+        <v>700</v>
       </c>
       <c r="E6">
-        <v>9171.75</v>
+        <v>19045.84</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>1941.67</v>
       </c>
       <c r="H6">
-        <v>2017.08</v>
+        <v>2991.67</v>
       </c>
       <c r="I6">
-        <v>5213</v>
+        <v>14112.5</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -987,36 +987,36 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>401</v>
+        <v>500</v>
       </c>
       <c r="E7">
-        <v>9343.299999999999</v>
+        <v>7471.88</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1941.67</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>317.2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5213</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1054,19 +1054,19 @@
         <v>420</v>
       </c>
       <c r="E8">
-        <v>7125.3</v>
+        <v>12773.25</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G8">
-        <v>1912.3</v>
+        <v>1941.67</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3295</v>
       </c>
       <c r="I8">
-        <v>5213</v>
+        <v>7536.58</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1101,22 +1101,22 @@
         <v>42</v>
       </c>
       <c r="D9">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="E9">
-        <v>7234.5</v>
+        <v>9415.48</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G9">
-        <v>1941.67</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>79.83</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>5213</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1137,33 +1137,33 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D10">
-        <v>475</v>
+        <v>420</v>
       </c>
       <c r="E10">
-        <v>9310.58</v>
+        <v>7062.69</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G10">
-        <v>1941.67</v>
+        <v>1849.69</v>
       </c>
       <c r="H10">
-        <v>2155.91</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>5213</v>
@@ -1187,33 +1187,33 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="E11">
-        <v>8426.25</v>
+        <v>7239.75</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G11">
         <v>1941.67</v>
       </c>
       <c r="H11">
-        <v>1271.58</v>
+        <v>85.08</v>
       </c>
       <c r="I11">
         <v>5213</v>
@@ -1237,33 +1237,33 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="E12">
-        <v>5866.88</v>
+        <v>7689.18</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G12">
-        <v>653.87</v>
+        <v>1941.67</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>534.51</v>
       </c>
       <c r="I12">
         <v>5213</v>
@@ -1287,36 +1287,36 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="E13">
-        <v>5275.66</v>
+        <v>6103.13</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>890.13</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>5213</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1337,36 +1337,36 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="E14">
-        <v>15361.19</v>
+        <v>8264.809999999999</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G14">
         <v>1941.67</v>
       </c>
       <c r="H14">
-        <v>3235.42</v>
+        <v>1110.14</v>
       </c>
       <c r="I14">
-        <v>10184.1</v>
+        <v>5213</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1387,27 +1387,27 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>401</v>
       </c>
       <c r="E15">
-        <v>6942.31</v>
+        <v>8505.15</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1437,36 +1437,36 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="E16">
-        <v>10672.5</v>
+        <v>9281.799999999999</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G16">
         <v>1941.67</v>
       </c>
       <c r="H16">
-        <v>3100</v>
+        <v>2127.13</v>
       </c>
       <c r="I16">
-        <v>5630.83</v>
+        <v>5213</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1487,36 +1487,36 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D17">
-        <v>650</v>
+        <v>401</v>
       </c>
       <c r="E17">
-        <v>8653.129999999999</v>
+        <v>10661.59</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G17">
-        <v>1941.67</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1498.46</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>5213</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1537,36 +1537,36 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="E18">
-        <v>14218.43</v>
+        <v>11151</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G18">
         <v>1941.67</v>
       </c>
       <c r="H18">
-        <v>3235.42</v>
+        <v>3100</v>
       </c>
       <c r="I18">
-        <v>9041.34</v>
+        <v>6109.33</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1587,36 +1587,36 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E19">
-        <v>7455</v>
+        <v>11665.88</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G19">
         <v>1941.67</v>
       </c>
       <c r="H19">
-        <v>300.33</v>
+        <v>3045.83</v>
       </c>
       <c r="I19">
-        <v>5213</v>
+        <v>6678.37</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1637,33 +1637,33 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="E20">
-        <v>9866.879999999999</v>
+        <v>8232.34</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>1941.67</v>
       </c>
       <c r="H20">
-        <v>2712.21</v>
+        <v>1077.67</v>
       </c>
       <c r="I20">
         <v>5213</v>
@@ -1687,36 +1687,36 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>600</v>
       </c>
       <c r="E21">
-        <v>3609</v>
+        <v>7200</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1941.67</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>45.33</v>
       </c>
       <c r="I21">
-        <v>3609</v>
+        <v>5213</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1737,36 +1737,36 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="E22">
-        <v>11814.6</v>
+        <v>6698.8</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="G22">
-        <v>1941.67</v>
+        <v>1485.8</v>
       </c>
       <c r="H22">
-        <v>3295</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>6577.93</v>
+        <v>5213</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1787,36 +1787,36 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D23">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="E23">
-        <v>13388.46</v>
+        <v>8785</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="G23">
         <v>1941.67</v>
       </c>
       <c r="H23">
-        <v>3235.42</v>
+        <v>1630.33</v>
       </c>
       <c r="I23">
-        <v>8211.370000000001</v>
+        <v>5213</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1837,27 +1837,27 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>420</v>
       </c>
       <c r="E24">
-        <v>13019.48</v>
+        <v>10823.4</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="G24">
         <v>1941.67</v>
@@ -1866,7 +1866,7 @@
         <v>3295</v>
       </c>
       <c r="I24">
-        <v>6969.41</v>
+        <v>4773.33</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>100</v>
       </c>
       <c r="P24">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1904,7 +1904,7 @@
         <v>475</v>
       </c>
       <c r="E25">
-        <v>11907.06</v>
+        <v>8077.97</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -1913,16 +1913,16 @@
         <v>1941.67</v>
       </c>
       <c r="H25">
-        <v>3235.42</v>
+        <v>1573.3</v>
       </c>
       <c r="I25">
-        <v>5820.48</v>
+        <v>3900.5</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>909.5</v>
+        <v>662.5</v>
       </c>
       <c r="L25" t="s">
         <v>20</v>
@@ -1931,833 +1931,833 @@
         <v>562.5</v>
       </c>
       <c r="N25">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>100</v>
       </c>
       <c r="P25">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>700</v>
       </c>
       <c r="E26">
-        <v>12332.25</v>
+        <v>6059.38</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G26">
-        <v>1941.67</v>
+        <v>846.38</v>
       </c>
       <c r="H26">
-        <v>2991.67</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>6124.91</v>
+        <v>4232.5</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1274</v>
+        <v>980.5</v>
       </c>
       <c r="L26" t="s">
         <v>20</v>
       </c>
       <c r="M26">
-        <v>810</v>
+        <v>607.5</v>
       </c>
       <c r="N26">
-        <v>364</v>
+        <v>273</v>
       </c>
       <c r="O26">
         <v>100</v>
       </c>
       <c r="P26">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>700</v>
+      </c>
+      <c r="E27">
+        <v>13190.63</v>
+      </c>
+      <c r="F27" t="s">
         <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27">
-        <v>500</v>
-      </c>
-      <c r="E27">
-        <v>9479.690000000001</v>
-      </c>
-      <c r="F27" t="s">
-        <v>19</v>
       </c>
       <c r="G27">
         <v>1941.67</v>
       </c>
       <c r="H27">
-        <v>2325.02</v>
+        <v>2991.67</v>
       </c>
       <c r="I27">
-        <v>4268</v>
+        <v>6983.29</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>52.56</v>
       </c>
       <c r="K27">
-        <v>945</v>
+        <v>1274</v>
       </c>
       <c r="L27" t="s">
         <v>20</v>
       </c>
       <c r="M27">
-        <v>585</v>
+        <v>810</v>
       </c>
       <c r="N27">
-        <v>260</v>
+        <v>364</v>
       </c>
       <c r="O27">
         <v>100</v>
       </c>
       <c r="P27">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="E28">
-        <v>12340.13</v>
+        <v>7900</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G28">
         <v>1941.67</v>
       </c>
       <c r="H28">
-        <v>3295</v>
+        <v>745.33</v>
       </c>
       <c r="I28">
-        <v>6290.06</v>
+        <v>4305.5</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>813.4</v>
+        <v>907.5</v>
       </c>
       <c r="L28" t="s">
         <v>20</v>
       </c>
       <c r="M28">
-        <v>495</v>
+        <v>562.5</v>
       </c>
       <c r="N28">
-        <v>218.4</v>
+        <v>245</v>
       </c>
       <c r="O28">
         <v>100</v>
       </c>
       <c r="P28">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="E29">
-        <v>10347.3</v>
+        <v>13235.78</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1941.67</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3295</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>7185.71</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>781.02</v>
+        <v>813.4</v>
       </c>
       <c r="L29" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>472.5</v>
+        <v>495</v>
       </c>
       <c r="N29">
-        <v>208.52</v>
+        <v>218.4</v>
       </c>
       <c r="O29">
         <v>100</v>
       </c>
       <c r="P29">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D30">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="E30">
-        <v>8701.879999999999</v>
+        <v>9033.530000000001</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G30">
-        <v>1941.67</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1547.21</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>4434.7</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>778.3</v>
+        <v>781.02</v>
       </c>
       <c r="L30" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M30">
         <v>472.5</v>
       </c>
       <c r="N30">
-        <v>205.8</v>
+        <v>208.52</v>
       </c>
       <c r="O30">
         <v>100</v>
       </c>
       <c r="P30">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>420</v>
       </c>
       <c r="E31">
-        <v>7855.84</v>
+        <v>7496.48</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G31">
         <v>1941.67</v>
       </c>
       <c r="H31">
-        <v>701.17</v>
+        <v>341.81</v>
       </c>
       <c r="I31">
-        <v>4399.6</v>
+        <v>4434.7</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>813.4</v>
+        <v>778.3</v>
       </c>
       <c r="L31" t="s">
         <v>20</v>
       </c>
       <c r="M31">
-        <v>495</v>
+        <v>472.5</v>
       </c>
       <c r="N31">
-        <v>218.4</v>
+        <v>205.8</v>
       </c>
       <c r="O31">
         <v>100</v>
       </c>
       <c r="P31">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D32">
-        <v>475</v>
+        <v>420</v>
       </c>
       <c r="E32">
-        <v>10353.73</v>
+        <v>6969.38</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G32">
-        <v>1941.67</v>
+        <v>1756.38</v>
       </c>
       <c r="H32">
-        <v>3199.06</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>4303.5</v>
+        <v>4399.6</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>909.5</v>
+        <v>813.4</v>
       </c>
       <c r="L32" t="s">
         <v>20</v>
       </c>
       <c r="M32">
-        <v>562.5</v>
+        <v>495</v>
       </c>
       <c r="N32">
-        <v>247</v>
+        <v>218.4</v>
       </c>
       <c r="O32">
         <v>100</v>
       </c>
       <c r="P32">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="E33">
-        <v>7460.25</v>
+        <v>8511.08</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G33">
         <v>1941.67</v>
       </c>
       <c r="H33">
-        <v>305.58</v>
+        <v>1356.41</v>
       </c>
       <c r="I33">
-        <v>4461.4</v>
+        <v>4303.5</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>751.6</v>
+        <v>909.5</v>
       </c>
       <c r="L33" t="s">
         <v>20</v>
       </c>
       <c r="M33">
-        <v>450</v>
+        <v>562.5</v>
       </c>
       <c r="N33">
-        <v>201.6</v>
+        <v>247</v>
       </c>
       <c r="O33">
         <v>100</v>
       </c>
       <c r="P33">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D34">
+        <v>420</v>
+      </c>
+      <c r="E34">
+        <v>6418.13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34">
+        <v>1205.13</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>4461.4</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>751.6</v>
+      </c>
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34">
         <v>450</v>
       </c>
-      <c r="E34">
-        <v>9338.059999999999</v>
-      </c>
-      <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34">
-        <v>1941.67</v>
-      </c>
-      <c r="H34">
-        <v>2183.39</v>
-      </c>
-      <c r="I34">
-        <v>4361.5</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>851.5</v>
-      </c>
-      <c r="L34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34">
-        <v>517.5</v>
-      </c>
       <c r="N34">
-        <v>234</v>
+        <v>201.6</v>
       </c>
       <c r="O34">
         <v>100</v>
       </c>
       <c r="P34">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D35">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="E35">
-        <v>5849.59</v>
+        <v>7185.94</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1941.67</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>31.27</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>4361.5</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>682.5</v>
+        <v>851.5</v>
       </c>
       <c r="L35" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>382.5</v>
+        <v>517.5</v>
       </c>
       <c r="N35">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="O35">
         <v>100</v>
       </c>
       <c r="P35">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D36">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="E36">
-        <v>10456.14</v>
+        <v>6288.18</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G36">
-        <v>1941.67</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>3235.42</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>4369.56</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>909.5</v>
+        <v>705</v>
       </c>
       <c r="L36" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M36">
-        <v>562.5</v>
+        <v>405</v>
       </c>
       <c r="N36">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="O36">
         <v>100</v>
       </c>
       <c r="P36">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>401</v>
+        <v>475</v>
       </c>
       <c r="E37">
-        <v>9676.629999999999</v>
+        <v>12167.03</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1941.67</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3235.42</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>6080.44</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>781.02</v>
+        <v>909.5</v>
       </c>
       <c r="L37" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>472.5</v>
+        <v>562.5</v>
       </c>
       <c r="N37">
-        <v>208.52</v>
+        <v>247</v>
       </c>
       <c r="O37">
         <v>100</v>
       </c>
       <c r="P37">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D38">
-        <v>600</v>
+        <v>401</v>
       </c>
       <c r="E38">
-        <v>10693.18</v>
+        <v>9049.57</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G38">
-        <v>1941.67</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>4542</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1109.5</v>
+        <v>781.02</v>
       </c>
       <c r="L38" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M38">
-        <v>697.5</v>
+        <v>472.5</v>
       </c>
       <c r="N38">
-        <v>312</v>
+        <v>208.52</v>
       </c>
       <c r="O38">
         <v>100</v>
       </c>
       <c r="P38">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E39">
-        <v>12230.56</v>
+        <v>10548.75</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G39">
         <v>1941.67</v>
       </c>
       <c r="H39">
-        <v>3045.83</v>
+        <v>3100</v>
       </c>
       <c r="I39">
-        <v>6040.06</v>
+        <v>4397.58</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1203</v>
+        <v>1109.5</v>
       </c>
       <c r="L39" t="s">
         <v>20</v>
       </c>
       <c r="M39">
-        <v>765</v>
+        <v>697.5</v>
       </c>
       <c r="N39">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="O39">
         <v>100</v>
       </c>
       <c r="P39">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="E40">
-        <v>10376.59</v>
+        <v>7434.38</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>1941.67</v>
       </c>
       <c r="H40">
-        <v>3221.92</v>
+        <v>279.7</v>
       </c>
       <c r="I40">
-        <v>4303.5</v>
+        <v>4010</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>909.5</v>
+        <v>1203</v>
       </c>
       <c r="L40" t="s">
         <v>20</v>
       </c>
       <c r="M40">
-        <v>562.5</v>
+        <v>765</v>
       </c>
       <c r="N40">
-        <v>247</v>
+        <v>338</v>
       </c>
       <c r="O40">
         <v>100</v>
       </c>
       <c r="P40">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="E41">
-        <v>9786.75</v>
+        <v>11234.08</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G41">
         <v>1941.67</v>
       </c>
       <c r="H41">
-        <v>2632.08</v>
+        <v>3235.42</v>
       </c>
       <c r="I41">
-        <v>4103.5</v>
+        <v>5147.49</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>1109.5</v>
+        <v>909.5</v>
       </c>
       <c r="L41" t="s">
         <v>20</v>
       </c>
       <c r="M41">
-        <v>697.5</v>
+        <v>562.5</v>
       </c>
       <c r="N41">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="O41">
         <v>100</v>
       </c>
       <c r="P41">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D42">
         <v>600</v>
       </c>
       <c r="E42">
-        <v>4794.5</v>
+        <v>3600</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>3999.5</v>
+        <v>2789</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="L42" t="s">
         <v>20</v>
@@ -2781,113 +2781,113 @@
         <v>495</v>
       </c>
       <c r="N42">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O42">
         <v>100</v>
       </c>
       <c r="P42">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D43">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E43">
-        <v>15438.13</v>
+        <v>3287.25</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G43">
-        <v>1941.67</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>3208.33</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>9343.120000000001</v>
+        <v>2407.25</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>945</v>
+        <v>880</v>
       </c>
       <c r="L43" t="s">
         <v>20</v>
       </c>
       <c r="M43">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="N43">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="O43">
         <v>100</v>
       </c>
       <c r="P43">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D44">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="E44">
-        <v>10428.03</v>
+        <v>10663.13</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="G44">
         <v>1941.67</v>
       </c>
       <c r="H44">
-        <v>3235.42</v>
+        <v>3208.33</v>
       </c>
       <c r="I44">
-        <v>4588.44</v>
+        <v>4568.12</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>662.5</v>
+        <v>945</v>
       </c>
       <c r="L44" t="s">
         <v>20</v>
       </c>
       <c r="M44">
-        <v>562.5</v>
+        <v>585</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="O44">
         <v>100</v>
       </c>
       <c r="P44">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2954,19 +2954,19 @@
         <v>22000</v>
       </c>
       <c r="E46">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="F46" t="s">
         <v>79</v>
       </c>
       <c r="G46">
-        <v>1941.67</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>1648.33</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>7410</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="P50">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="P51">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="P53">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3354,7 +3354,7 @@
         <v>26250</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="G54">
         <v>1941.67</v>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3404,7 +3404,7 @@
         <v>15000</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>1941.67</v>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="P56">
-        <v>44788</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3510,10 +3510,10 @@
         <v>1941.67</v>
       </c>
       <c r="H57">
-        <v>2833.33</v>
+        <v>1648.33</v>
       </c>
       <c r="I57">
-        <v>4695</v>
+        <v>5880</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>100</v>
       </c>
       <c r="P57">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3551,19 +3551,19 @@
         <v>22000</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="F58" t="s">
         <v>79</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1941.67</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1648.33</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>5880</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>100</v>
       </c>
       <c r="P58">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3634,7 +3634,7 @@
         <v>100</v>
       </c>
       <c r="P59">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3684,7 +3684,7 @@
         <v>100</v>
       </c>
       <c r="P60">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3734,7 +3734,7 @@
         <v>100</v>
       </c>
       <c r="P61">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3772,7 +3772,7 @@
         <v>848.5</v>
       </c>
       <c r="L62" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M62">
         <v>517.5</v>
@@ -3784,7 +3784,7 @@
         <v>100</v>
       </c>
       <c r="P62">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3831,7 +3831,7 @@
         <v>100</v>
       </c>
       <c r="P63">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3881,7 +3881,7 @@
         <v>100</v>
       </c>
       <c r="P64">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3931,27 +3931,27 @@
         <v>100</v>
       </c>
       <c r="P65">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D66">
-        <v>30000</v>
+        <v>52500</v>
       </c>
       <c r="E66">
-        <v>15000</v>
+        <v>26250</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G66">
         <v>1941.67</v>
@@ -3960,13 +3960,13 @@
         <v>2500</v>
       </c>
       <c r="I66">
-        <v>8733.33</v>
+        <v>19533.33</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>4502.17</v>
       </c>
       <c r="K66">
-        <v>1825</v>
+        <v>2275</v>
       </c>
       <c r="L66" t="s">
         <v>20</v>
@@ -3975,33 +3975,33 @@
         <v>900</v>
       </c>
       <c r="N66">
-        <v>600</v>
+        <v>1050</v>
       </c>
       <c r="O66">
         <v>100</v>
       </c>
       <c r="P66">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D67">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="E67">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="F67" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="G67">
         <v>1941.67</v>
@@ -4010,13 +4010,13 @@
         <v>2500</v>
       </c>
       <c r="I67">
-        <v>11133.33</v>
+        <v>8733.33</v>
       </c>
       <c r="J67">
-        <v>671.73</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>1925</v>
+        <v>1825</v>
       </c>
       <c r="L67" t="s">
         <v>20</v>
@@ -4025,113 +4025,63 @@
         <v>900</v>
       </c>
       <c r="N67">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O67">
         <v>100</v>
       </c>
       <c r="P67">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="D68">
-        <v>700</v>
+        <v>35000</v>
       </c>
       <c r="E68">
-        <v>19185.25</v>
+        <v>17500</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="G68">
         <v>1941.67</v>
       </c>
       <c r="H68">
-        <v>2991.67</v>
+        <v>2500</v>
       </c>
       <c r="I68">
-        <v>12977.91</v>
+        <v>11133.33</v>
       </c>
       <c r="J68">
-        <v>327.54</v>
+        <v>671.73</v>
       </c>
       <c r="K68">
-        <v>1274</v>
+        <v>1925</v>
       </c>
       <c r="L68" t="s">
         <v>20</v>
       </c>
       <c r="M68">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="N68">
-        <v>364</v>
+        <v>700</v>
       </c>
       <c r="O68">
         <v>100</v>
       </c>
       <c r="P68">
-        <v>44804</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
-      <c r="A69" t="s">
-        <v>103</v>
-      </c>
-      <c r="B69" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" t="s">
-        <v>105</v>
-      </c>
-      <c r="D69">
-        <v>52500</v>
-      </c>
-      <c r="E69">
-        <v>26250</v>
-      </c>
-      <c r="F69" t="s">
-        <v>72</v>
-      </c>
-      <c r="G69">
-        <v>1941.67</v>
-      </c>
-      <c r="H69">
-        <v>2500</v>
-      </c>
-      <c r="I69">
-        <v>19533.33</v>
-      </c>
-      <c r="J69">
-        <v>4502.17</v>
-      </c>
-      <c r="K69">
-        <v>2275</v>
-      </c>
-      <c r="L69" t="s">
-        <v>20</v>
-      </c>
-      <c r="M69">
-        <v>900</v>
-      </c>
-      <c r="N69">
-        <v>1050</v>
-      </c>
-      <c r="O69">
-        <v>100</v>
-      </c>
-      <c r="P69">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
   </sheetData>

--- a/payroll.xlsx
+++ b/payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -64,6 +64,127 @@
     <t>DATE</t>
   </si>
   <si>
+    <t>2099</t>
+  </si>
+  <si>
+    <t>Gonzales,Ray Leonard</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Rizal-R&amp;F</t>
+  </si>
+  <si>
+    <t>Taxable</t>
+  </si>
+  <si>
+    <t>2097</t>
+  </si>
+  <si>
+    <t>CORTEZ,JUANITO, JR</t>
+  </si>
+  <si>
+    <t>TireMan</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>CALATCAT,ROGELIO, JR.</t>
+  </si>
+  <si>
+    <t>DT Driver</t>
+  </si>
+  <si>
+    <t>2113</t>
+  </si>
+  <si>
+    <t>PENDOT,JOEFEL</t>
+  </si>
+  <si>
+    <t>Equipment Monitoring</t>
+  </si>
+  <si>
+    <t>MWE</t>
+  </si>
+  <si>
+    <t>2120</t>
+  </si>
+  <si>
+    <t>MENDADOR,JEROME</t>
+  </si>
+  <si>
+    <t>EQUIPT. MONITORING</t>
+  </si>
+  <si>
+    <t>2123</t>
+  </si>
+  <si>
+    <t>CAMANIA,JEREMIAH</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>2129</t>
+  </si>
+  <si>
+    <t>SEVERO,JONEL</t>
+  </si>
+  <si>
+    <t>Helper Mechanic</t>
+  </si>
+  <si>
+    <t>2130</t>
+  </si>
+  <si>
+    <t>BRIOSO,MARC LLYOD</t>
+  </si>
+  <si>
+    <t>2138</t>
+  </si>
+  <si>
+    <t>BOISER,JEFFREY</t>
+  </si>
+  <si>
+    <t>2151</t>
+  </si>
+  <si>
+    <t>ENDRANO ,PRECIOSO ARVIN</t>
+  </si>
+  <si>
+    <t>MECHANIC</t>
+  </si>
+  <si>
+    <t>2149</t>
+  </si>
+  <si>
+    <t>MOLINA,ABRAHAM</t>
+  </si>
+  <si>
+    <t>OPERATOR</t>
+  </si>
+  <si>
+    <t>4001</t>
+  </si>
+  <si>
+    <t>GABAY,DENNIS</t>
+  </si>
+  <si>
+    <t>6002</t>
+  </si>
+  <si>
+    <t>MAHINAY,VAN LESTER JUNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MINE STATISTICIAN</t>
+  </si>
+  <si>
+    <t>Bayug</t>
+  </si>
+  <si>
     <t>2132</t>
   </si>
   <si>
@@ -73,33 +194,6 @@
     <t>Tire Man</t>
   </si>
   <si>
-    <t>Surigao</t>
-  </si>
-  <si>
-    <t>Taxable</t>
-  </si>
-  <si>
-    <t>2092</t>
-  </si>
-  <si>
-    <t>RELATORRES,ANTONIO</t>
-  </si>
-  <si>
-    <t>OPERATOR</t>
-  </si>
-  <si>
-    <t>Rizal-R&amp;F</t>
-  </si>
-  <si>
-    <t>2099</t>
-  </si>
-  <si>
-    <t>Gonzales,Ray Leonard</t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
     <t>2022</t>
   </si>
   <si>
@@ -109,121 +203,31 @@
     <t>JR. MECHANIC</t>
   </si>
   <si>
-    <t>2097</t>
-  </si>
-  <si>
-    <t>CORTEZ,JUANITO, JR</t>
-  </si>
-  <si>
-    <t>TireMan</t>
-  </si>
-  <si>
-    <t>2113</t>
-  </si>
-  <si>
-    <t>PENDOT,JOEFEL</t>
-  </si>
-  <si>
-    <t>Equipment Monitoring</t>
-  </si>
-  <si>
-    <t>MWE</t>
-  </si>
-  <si>
-    <t>2120</t>
-  </si>
-  <si>
-    <t>MENDADOR,JEROME</t>
-  </si>
-  <si>
-    <t>EQUIPT. MONITORING</t>
-  </si>
-  <si>
-    <t>2123</t>
-  </si>
-  <si>
-    <t>CAMANIA,JEREMIAH</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>2125</t>
-  </si>
-  <si>
-    <t>VISTAL,CHITO</t>
-  </si>
-  <si>
-    <t>DT Driver</t>
-  </si>
-  <si>
-    <t>2129</t>
-  </si>
-  <si>
-    <t>SEVERO,JONEL</t>
-  </si>
-  <si>
-    <t>Helper Mechanic</t>
-  </si>
-  <si>
-    <t>2130</t>
-  </si>
-  <si>
-    <t>BRIOSO,MARC LLYOD</t>
-  </si>
-  <si>
-    <t>2138</t>
-  </si>
-  <si>
-    <t>BOISER,JEFFREY</t>
-  </si>
-  <si>
-    <t>2151</t>
-  </si>
-  <si>
-    <t>ENDRANO ,PRECIOSO ARVIN</t>
-  </si>
-  <si>
-    <t>MECHANIC</t>
-  </si>
-  <si>
-    <t>2149</t>
-  </si>
-  <si>
-    <t>MOLINA,ABRAHAM</t>
-  </si>
-  <si>
-    <t>2154</t>
-  </si>
-  <si>
-    <t>APILADO,VIC JR</t>
-  </si>
-  <si>
-    <t>2158</t>
-  </si>
-  <si>
-    <t>TOGUENIO,HENRY</t>
-  </si>
-  <si>
-    <t>2161</t>
-  </si>
-  <si>
-    <t>Barrientos,Abejoy</t>
-  </si>
-  <si>
-    <t>4001</t>
-  </si>
-  <si>
-    <t>GABAY,DENNIS</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>CALATCAT,ROGELIO, JR.</t>
-  </si>
-  <si>
-    <t>Zamboanga</t>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Sabusido,Jerome</t>
+  </si>
+  <si>
+    <t>Accounting Assistant</t>
+  </si>
+  <si>
+    <t>Head Office</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>Saltarin,Roy</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>Bautista,Rodel</t>
+  </si>
+  <si>
+    <t>Admin Assitant</t>
   </si>
   <si>
     <t>2003</t>
@@ -235,9 +239,6 @@
     <t>Administrative Manager</t>
   </si>
   <si>
-    <t>Head Office</t>
-  </si>
-  <si>
     <t>2004</t>
   </si>
   <si>
@@ -247,13 +248,31 @@
     <t>Legal Officer</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>Bautista,Rodel</t>
-  </si>
-  <si>
-    <t>Admin Assitant</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>Bringas,Ria Erla</t>
+  </si>
+  <si>
+    <t>Accounting Staff</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>Defensor,Maria Theresa</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>Gordovez,Oliver</t>
+  </si>
+  <si>
+    <t>Liason Officer</t>
   </si>
   <si>
     <t>2008</t>
@@ -265,55 +284,31 @@
     <t>Purchasing Officer</t>
   </si>
   <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>Defensor,Maria Theresa</t>
-  </si>
-  <si>
-    <t>President</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>Gordovez,Oliver</t>
-  </si>
-  <si>
-    <t>Liason Officer</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>Saltarin,Roy</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>Sabusido,Jerome</t>
-  </si>
-  <si>
-    <t>Accounting Assistant</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>Bringas,Ria Erla</t>
-  </si>
-  <si>
-    <t>Accounting Staff</t>
-  </si>
-  <si>
-    <t>3001</t>
-  </si>
-  <si>
-    <t>Sabusido,Rey Anthony</t>
-  </si>
-  <si>
-    <t>General Foreman</t>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>MARAGAY,RONALD</t>
+  </si>
+  <si>
+    <t>ACCTG STAFF</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>ALBA,KATHLEEN MAE</t>
+  </si>
+  <si>
+    <t>ACCTG ASST</t>
+  </si>
+  <si>
+    <t>5003</t>
+  </si>
+  <si>
+    <t>MEJA,JIMUEL</t>
+  </si>
+  <si>
+    <t>CHEIF MECHANIC</t>
   </si>
   <si>
     <t>3002</t>
@@ -326,15 +321,6 @@
   </si>
   <si>
     <t>Admin-Site</t>
-  </si>
-  <si>
-    <t>5003</t>
-  </si>
-  <si>
-    <t>MEJA,JIMUEL</t>
-  </si>
-  <si>
-    <t>CHEIF MECHANIC</t>
   </si>
 </sst>
 </file>
@@ -666,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,10 +719,10 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>420</v>
+        <v>700</v>
       </c>
       <c r="E2">
-        <v>7224</v>
+        <v>16413.25</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -745,31 +731,31 @@
         <v>1941.67</v>
       </c>
       <c r="H2">
-        <v>732.33</v>
+        <v>2991.67</v>
       </c>
       <c r="I2">
-        <v>3736.6</v>
+        <v>11479.91</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>813.4</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
       </c>
       <c r="M2">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>218.4</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -783,143 +769,143 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="E3">
-        <v>11403.88</v>
+        <v>11787.75</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>1941.67</v>
       </c>
       <c r="H3">
-        <v>2991.67</v>
+        <v>3262.5</v>
       </c>
       <c r="I3">
-        <v>5196.54</v>
+        <v>6583.58</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1274</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
       </c>
       <c r="M3">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E4">
-        <v>17972.5</v>
+        <v>9833.129999999999</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>1941.67</v>
       </c>
       <c r="H4">
-        <v>2991.67</v>
+        <v>2314.46</v>
       </c>
       <c r="I4">
-        <v>11765.16</v>
+        <v>5577</v>
       </c>
       <c r="J4">
-        <v>1615.19</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1274</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5">
+        <v>429</v>
+      </c>
+      <c r="E5">
+        <v>11647.89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>30</v>
       </c>
-      <c r="D5">
-        <v>500</v>
-      </c>
-      <c r="E5">
-        <v>8914.379999999999</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <v>1941.67</v>
-      </c>
-      <c r="H5">
-        <v>1759.71</v>
-      </c>
-      <c r="I5">
-        <v>4268</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>945</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
       <c r="M5">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -933,43 +919,43 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="E6">
-        <v>13313.48</v>
+        <v>9566.440000000001</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>1941.67</v>
       </c>
       <c r="H6">
-        <v>3295</v>
+        <v>2047.77</v>
       </c>
       <c r="I6">
-        <v>7263.41</v>
+        <v>5577</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>813.4</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>20</v>
       </c>
       <c r="M6">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>218.4</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -983,443 +969,443 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="E7">
-        <v>9643.549999999999</v>
+        <v>6687.56</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1110.56</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5577</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>781.02</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>472.5</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>208.52</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
       <c r="D8">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="E8">
-        <v>7594.13</v>
+        <v>6910.31</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>1941.67</v>
+        <v>1333.31</v>
       </c>
       <c r="H8">
-        <v>439.45</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>4430.5</v>
+        <v>5577</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>782.5</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>20</v>
       </c>
       <c r="M8">
-        <v>472.5</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="E9">
-        <v>6939.45</v>
+        <v>9507.719999999999</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>1726.45</v>
+        <v>1941.67</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1989.05</v>
       </c>
       <c r="I9">
-        <v>4399.6</v>
+        <v>5577</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>813.4</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>20</v>
       </c>
       <c r="M9">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>218.4</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>475</v>
+        <v>429</v>
       </c>
       <c r="E10">
-        <v>8670.16</v>
+        <v>8197.120000000001</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>1941.67</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1515.49</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>4303.5</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>909.5</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>562.5</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="E11">
-        <v>6606.08</v>
+        <v>12791.12</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>1393.07</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4463</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
       </c>
       <c r="D12">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="E12">
-        <v>8072.44</v>
+        <v>18769.56</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G12">
         <v>1941.67</v>
       </c>
       <c r="H12">
-        <v>917.77</v>
+        <v>3045.83</v>
       </c>
       <c r="I12">
-        <v>4361.5</v>
+        <v>13782.06</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>851.5</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>20</v>
       </c>
       <c r="M12">
-        <v>517.5</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>401</v>
+        <v>500</v>
       </c>
       <c r="E13">
-        <v>7367.37</v>
+        <v>10763.75</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1941.67</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3208.33</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>5613.75</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M13">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14">
+        <v>450</v>
+      </c>
+      <c r="E14">
+        <v>12575.25</v>
+      </c>
+      <c r="F14" t="s">
         <v>55</v>
       </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14">
-        <v>401</v>
-      </c>
-      <c r="E14">
-        <v>5894.7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
       <c r="G14">
-        <v>0</v>
+        <v>1941.67</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3262.5</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>7371.08</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>781.02</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>472.5</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>208.52</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
       <c r="D15">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="E15">
-        <v>8856</v>
+        <v>10933.65</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="G15">
         <v>1941.67</v>
       </c>
       <c r="H15">
-        <v>1701.33</v>
+        <v>3295</v>
       </c>
       <c r="I15">
-        <v>4172.5</v>
+        <v>5696.98</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1040.5</v>
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>20</v>
       </c>
       <c r="M15">
-        <v>652.5</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1430,466 +1416,466 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D16">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E16">
-        <v>9766.25</v>
+        <v>16485.75</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="G16">
         <v>1941.67</v>
       </c>
       <c r="H16">
-        <v>2611.58</v>
+        <v>3100</v>
       </c>
       <c r="I16">
-        <v>4010</v>
+        <v>11444.08</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1203</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>20</v>
       </c>
       <c r="M16">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D17">
-        <v>600</v>
+        <v>19360</v>
       </c>
       <c r="E17">
-        <v>8853.75</v>
+        <v>9680</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="G17">
         <v>1941.67</v>
       </c>
       <c r="H17">
-        <v>1699.08</v>
+        <v>328.33</v>
       </c>
       <c r="I17">
-        <v>4103.5</v>
+        <v>7410</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1109.5</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>20</v>
       </c>
       <c r="M17">
-        <v>697.5</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
         <v>64</v>
       </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
       <c r="D18">
-        <v>600</v>
+        <v>17600</v>
       </c>
       <c r="E18">
-        <v>5496.75</v>
+        <v>8800</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="G18">
-        <v>283.75</v>
+        <v>1390</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4333</v>
+        <v>7410</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>880</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>20</v>
       </c>
       <c r="M18">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19">
+        <v>17600</v>
+      </c>
+      <c r="E19">
+        <v>8800</v>
+      </c>
+      <c r="F19" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19">
-        <v>500</v>
-      </c>
-      <c r="E19">
-        <v>12010.63</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
       <c r="G19">
-        <v>1941.67</v>
+        <v>1390</v>
       </c>
       <c r="H19">
-        <v>3208.33</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>5915.62</v>
+        <v>7410</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>945</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>20</v>
       </c>
       <c r="M19">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D20">
-        <v>475</v>
+        <v>24200</v>
       </c>
       <c r="E20">
-        <v>9293.379999999999</v>
+        <v>12100</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G20">
         <v>1941.67</v>
       </c>
       <c r="H20">
-        <v>2788.71</v>
+        <v>2741.67</v>
       </c>
       <c r="I20">
-        <v>3900.5</v>
+        <v>7416.66</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>662.5</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>20</v>
       </c>
       <c r="M20">
-        <v>562.5</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D21">
-        <v>22000</v>
+        <v>24200</v>
       </c>
       <c r="E21">
-        <v>11000</v>
+        <v>12100</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G21">
         <v>1941.67</v>
       </c>
       <c r="H21">
-        <v>1648.33</v>
+        <v>2741.67</v>
       </c>
       <c r="I21">
-        <v>5880</v>
+        <v>7416.66</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>20</v>
       </c>
       <c r="M21">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D22">
-        <v>22000</v>
+        <v>18700</v>
       </c>
       <c r="E22">
-        <v>11000</v>
+        <v>9350</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G22">
-        <v>1941.67</v>
+        <v>1940</v>
       </c>
       <c r="H22">
-        <v>1648.33</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>5880</v>
+        <v>7410</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>20</v>
       </c>
       <c r="M22">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D23">
-        <v>14850</v>
+        <v>24200</v>
       </c>
       <c r="E23">
-        <v>7425</v>
+        <v>24600</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G23">
-        <v>15</v>
+        <v>1941.67</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I23">
-        <v>6338</v>
+        <v>20158.33</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1072</v>
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>20</v>
       </c>
       <c r="M23">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D24">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="E24">
-        <v>23500</v>
+        <v>6500</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G24">
-        <v>1941.67</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>17528.33</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3313.42</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D25">
-        <v>22000</v>
+        <v>24200</v>
       </c>
       <c r="E25">
-        <v>23500</v>
+        <v>24600</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G25">
         <v>1941.67</v>
@@ -1898,86 +1884,89 @@
         <v>2500</v>
       </c>
       <c r="I25">
-        <v>17528.33</v>
+        <v>20158.33</v>
       </c>
       <c r="J25">
-        <v>3313.42</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
         <v>20</v>
       </c>
       <c r="M25">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D26">
-        <v>11550</v>
+        <v>15000</v>
       </c>
       <c r="E26">
-        <v>5775</v>
+        <v>7500</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>7410</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>848.5</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>517.5</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
       </c>
       <c r="D27">
         <v>16000</v>
@@ -1986,287 +1975,137 @@
         <v>8000</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G27">
-        <v>590</v>
+        <v>1941.67</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1495.33</v>
       </c>
       <c r="I27">
-        <v>6270</v>
+        <v>4563</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1140</v>
+        <v>0</v>
       </c>
       <c r="L27" t="s">
         <v>20</v>
       </c>
       <c r="M27">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D28">
-        <v>17600</v>
+        <v>30000</v>
       </c>
       <c r="E28">
-        <v>8800</v>
+        <v>15000</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G28">
-        <v>1390</v>
+        <v>1941.67</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I28">
-        <v>6170.5</v>
+        <v>10558.33</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1239.5</v>
+        <v>0</v>
       </c>
       <c r="L28" t="s">
         <v>20</v>
       </c>
       <c r="M28">
-        <v>787.5</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D29">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="E29">
-        <v>8500</v>
+        <v>17500</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="G29">
-        <v>1090</v>
+        <v>1941.67</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I29">
-        <v>6205</v>
+        <v>13058.33</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1205</v>
+        <v>0</v>
       </c>
       <c r="L29" t="s">
         <v>20</v>
       </c>
       <c r="M29">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>44865</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30">
-        <v>52500</v>
-      </c>
-      <c r="E30">
-        <v>26250</v>
-      </c>
-      <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30">
-        <v>1941.67</v>
-      </c>
-      <c r="H30">
-        <v>2500</v>
-      </c>
-      <c r="I30">
-        <v>19533.33</v>
-      </c>
-      <c r="J30">
-        <v>4502.17</v>
-      </c>
-      <c r="K30">
-        <v>2275</v>
-      </c>
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30">
-        <v>900</v>
-      </c>
-      <c r="N30">
-        <v>1050</v>
-      </c>
-      <c r="O30">
-        <v>100</v>
-      </c>
-      <c r="P30">
-        <v>44865</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31">
-        <v>35000</v>
-      </c>
-      <c r="E31">
-        <v>17500</v>
-      </c>
-      <c r="F31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31">
-        <v>1941.67</v>
-      </c>
-      <c r="H31">
-        <v>2500</v>
-      </c>
-      <c r="I31">
-        <v>11133.33</v>
-      </c>
-      <c r="J31">
-        <v>671.73</v>
-      </c>
-      <c r="K31">
-        <v>1925</v>
-      </c>
-      <c r="L31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31">
-        <v>900</v>
-      </c>
-      <c r="N31">
-        <v>700</v>
-      </c>
-      <c r="O31">
-        <v>100</v>
-      </c>
-      <c r="P31">
-        <v>44865</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32">
-        <v>30000</v>
-      </c>
-      <c r="E32">
-        <v>15000</v>
-      </c>
-      <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32">
-        <v>1941.67</v>
-      </c>
-      <c r="H32">
-        <v>2500</v>
-      </c>
-      <c r="I32">
-        <v>8733.33</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>1825</v>
-      </c>
-      <c r="L32" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32">
-        <v>900</v>
-      </c>
-      <c r="N32">
-        <v>600</v>
-      </c>
-      <c r="O32">
-        <v>100</v>
-      </c>
-      <c r="P32">
-        <v>44865</v>
+        <v>45031</v>
       </c>
     </row>
   </sheetData>
